--- a/vocabulary_gen/vocab.xlsx
+++ b/vocabulary_gen/vocab.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neilb\OneDrive\LAJ2203\Personal Notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neilb\Projects\oboeru-web\vocabulary_gen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="156" documentId="114_{FA8FDE0F-1F5B-4E0F-A2A4-2DE8FE29E157}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{283B5DF6-0577-4EB9-A4B1-C603A3FFB9BB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67ADC950-6358-4168-8E8C-5E1B03D865A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{75A4A7FE-AA9B-48C2-A5CA-A82ACC0BB528}"/>
   </bookViews>
@@ -13243,9 +13243,6 @@
     <t>old tale, folklore</t>
   </si>
   <si>
-    <t>a certain~, one~</t>
-  </si>
-  <si>
     <t>いじめます</t>
   </si>
   <si>
@@ -13453,9 +13450,6 @@
     <t>law</t>
   </si>
   <si>
-    <t>せんどう</t>
-  </si>
-  <si>
     <t>戦争</t>
   </si>
   <si>
@@ -13534,9 +13528,6 @@
     <t>can opener</t>
   </si>
   <si>
-    <t>かんずめ</t>
-  </si>
-  <si>
     <t>缶詰</t>
   </si>
   <si>
@@ -13633,9 +13624,6 @@
     <t>spread</t>
   </si>
   <si>
-    <t>ひじょうちょうさ</t>
-  </si>
-  <si>
     <t>市場調査</t>
   </si>
   <si>
@@ -14462,6 +14450,18 @@
   </si>
   <si>
     <t>the day before yesterday</t>
+  </si>
+  <si>
+    <t>かんづめ</t>
+  </si>
+  <si>
+    <t>せんそう</t>
+  </si>
+  <si>
+    <t>しじょうちょうさ</t>
+  </si>
+  <si>
+    <t>a certain～, one～</t>
   </si>
 </sst>
 </file>
@@ -15051,9 +15051,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{628C1A06-DC3A-4A9C-92CD-85C7106034D7}">
   <dimension ref="A1:O1834"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1536" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L135" sqref="L135"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1734" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L1750" sqref="L1750"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15638,7 +15638,7 @@
         <v>360</v>
       </c>
       <c r="L29" s="12" t="s">
-        <v>4755</v>
+        <v>4751</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -15653,7 +15653,7 @@
         <v>361</v>
       </c>
       <c r="L30" s="12" t="s">
-        <v>4756</v>
+        <v>4752</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -17762,7 +17762,7 @@
         <v>566</v>
       </c>
       <c r="L137" s="12" t="s">
-        <v>4785</v>
+        <v>4781</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
@@ -41849,10 +41849,10 @@
         <v>2921</v>
       </c>
       <c r="H1302" s="6" t="s">
-        <v>4757</v>
+        <v>4753</v>
       </c>
       <c r="I1302" s="6" t="s">
-        <v>4757</v>
+        <v>4753</v>
       </c>
       <c r="L1302" s="12" t="s">
         <v>3450</v>
@@ -42071,7 +42071,7 @@
         <v>805</v>
       </c>
       <c r="F1314" s="48" t="s">
-        <v>4669</v>
+        <v>4665</v>
       </c>
       <c r="G1314" s="48" t="s">
         <v>3014</v>
@@ -42103,7 +42103,7 @@
       </c>
       <c r="F1315" s="48"/>
       <c r="H1315" s="6" t="s">
-        <v>4759</v>
+        <v>4755</v>
       </c>
       <c r="I1315" s="6" t="s">
         <v>3476</v>
@@ -42208,7 +42208,7 @@
         <v>2896</v>
       </c>
       <c r="H1319" s="6" t="s">
-        <v>4670</v>
+        <v>4666</v>
       </c>
       <c r="I1319" s="6" t="s">
         <v>3484</v>
@@ -42234,7 +42234,7 @@
       </c>
       <c r="F1320" s="48"/>
       <c r="H1320" s="6" t="s">
-        <v>4671</v>
+        <v>4667</v>
       </c>
       <c r="I1320" s="6" t="s">
         <v>3487</v>
@@ -42310,10 +42310,10 @@
       </c>
       <c r="F1323" s="48"/>
       <c r="H1323" s="6" t="s">
-        <v>4672</v>
+        <v>4668</v>
       </c>
       <c r="I1323" s="6" t="s">
-        <v>4673</v>
+        <v>4669</v>
       </c>
       <c r="J1323"/>
       <c r="K1323"/>
@@ -42462,7 +42462,7 @@
       <c r="J1329"/>
       <c r="K1329"/>
       <c r="L1329" s="45" t="s">
-        <v>4674</v>
+        <v>4670</v>
       </c>
       <c r="M1329"/>
     </row>
@@ -42486,7 +42486,7 @@
       <c r="J1330"/>
       <c r="K1330"/>
       <c r="L1330" s="45" t="s">
-        <v>4675</v>
+        <v>4671</v>
       </c>
       <c r="M1330"/>
     </row>
@@ -42510,7 +42510,7 @@
       <c r="J1331"/>
       <c r="K1331"/>
       <c r="L1331" s="45" t="s">
-        <v>4676</v>
+        <v>4672</v>
       </c>
       <c r="M1331"/>
     </row>
@@ -42534,7 +42534,7 @@
       <c r="J1332"/>
       <c r="K1332"/>
       <c r="L1332" s="45" t="s">
-        <v>4677</v>
+        <v>4673</v>
       </c>
       <c r="M1332"/>
     </row>
@@ -42558,7 +42558,7 @@
       <c r="J1333"/>
       <c r="K1333"/>
       <c r="L1333" s="45" t="s">
-        <v>4678</v>
+        <v>4674</v>
       </c>
       <c r="M1333"/>
     </row>
@@ -42582,7 +42582,7 @@
       <c r="J1334"/>
       <c r="K1334"/>
       <c r="L1334" s="45" t="s">
-        <v>4679</v>
+        <v>4675</v>
       </c>
       <c r="M1334"/>
     </row>
@@ -42679,7 +42679,7 @@
       </c>
       <c r="K1338"/>
       <c r="L1338" s="45" t="s">
-        <v>4680</v>
+        <v>4676</v>
       </c>
       <c r="M1338"/>
     </row>
@@ -42761,7 +42761,7 @@
       </c>
       <c r="F1342" s="48"/>
       <c r="H1342" s="6" t="s">
-        <v>4681</v>
+        <v>4677</v>
       </c>
       <c r="I1342" s="6" t="s">
         <v>3528</v>
@@ -42842,7 +42842,7 @@
       </c>
       <c r="K1345"/>
       <c r="L1345" s="45" t="s">
-        <v>4728</v>
+        <v>4724</v>
       </c>
       <c r="M1345"/>
     </row>
@@ -42865,7 +42865,7 @@
       </c>
       <c r="K1346"/>
       <c r="L1346" s="45" t="s">
-        <v>4729</v>
+        <v>4725</v>
       </c>
       <c r="M1346"/>
     </row>
@@ -42905,7 +42905,7 @@
       </c>
       <c r="F1348" s="48"/>
       <c r="H1348" s="6" t="s">
-        <v>4682</v>
+        <v>4678</v>
       </c>
       <c r="I1348" s="6" t="s">
         <v>3540</v>
@@ -42913,7 +42913,7 @@
       <c r="J1348"/>
       <c r="K1348"/>
       <c r="L1348" s="45" t="s">
-        <v>4683</v>
+        <v>4679</v>
       </c>
       <c r="M1348"/>
     </row>
@@ -42963,7 +42963,7 @@
       <c r="J1350"/>
       <c r="K1350"/>
       <c r="L1350" s="45" t="s">
-        <v>4684</v>
+        <v>4680</v>
       </c>
       <c r="M1350"/>
     </row>
@@ -42986,7 +42986,7 @@
       <c r="J1351"/>
       <c r="K1351"/>
       <c r="L1351" s="45" t="s">
-        <v>4685</v>
+        <v>4681</v>
       </c>
       <c r="M1351"/>
     </row>
@@ -43102,7 +43102,7 @@
       <c r="J1356"/>
       <c r="K1356"/>
       <c r="L1356" s="45" t="s">
-        <v>4730</v>
+        <v>4726</v>
       </c>
       <c r="M1356"/>
     </row>
@@ -43166,7 +43166,7 @@
       </c>
       <c r="F1359" s="48"/>
       <c r="H1359" s="6" t="s">
-        <v>4686</v>
+        <v>4682</v>
       </c>
       <c r="I1359" s="6" t="s">
         <v>3562</v>
@@ -43214,7 +43214,7 @@
       </c>
       <c r="F1361" s="48"/>
       <c r="H1361" s="6" t="s">
-        <v>4687</v>
+        <v>4683</v>
       </c>
       <c r="I1361" s="6" t="s">
         <v>3567</v>
@@ -43238,7 +43238,7 @@
       </c>
       <c r="F1362" s="48"/>
       <c r="H1362" s="6" t="s">
-        <v>4688</v>
+        <v>4684</v>
       </c>
       <c r="I1362" s="6" t="s">
         <v>3569</v>
@@ -43413,15 +43413,15 @@
         <v>3583</v>
       </c>
       <c r="I1368" s="6" t="s">
-        <v>4689</v>
+        <v>4685</v>
       </c>
       <c r="J1368"/>
       <c r="K1368"/>
       <c r="L1368" s="45" t="s">
-        <v>4691</v>
+        <v>4687</v>
       </c>
       <c r="M1368" t="s">
-        <v>4690</v>
+        <v>4686</v>
       </c>
     </row>
     <row r="1369" spans="1:13" x14ac:dyDescent="0.25">
@@ -43441,7 +43441,7 @@
         <v>3583</v>
       </c>
       <c r="I1369" s="6" t="s">
-        <v>4689</v>
+        <v>4685</v>
       </c>
       <c r="J1369"/>
       <c r="K1369"/>
@@ -43789,10 +43789,10 @@
       </c>
       <c r="F1384" s="48"/>
       <c r="H1384" s="6" t="s">
-        <v>4692</v>
+        <v>4688</v>
       </c>
       <c r="I1384" s="6" t="s">
-        <v>4692</v>
+        <v>4688</v>
       </c>
       <c r="J1384"/>
       <c r="K1384"/>
@@ -44021,7 +44021,7 @@
       </c>
       <c r="K1394"/>
       <c r="L1394" s="45" t="s">
-        <v>4693</v>
+        <v>4689</v>
       </c>
       <c r="M1394"/>
     </row>
@@ -44087,7 +44087,7 @@
       <c r="J1397"/>
       <c r="K1397"/>
       <c r="L1397" s="45" t="s">
-        <v>4731</v>
+        <v>4727</v>
       </c>
       <c r="M1397"/>
     </row>
@@ -44127,10 +44127,10 @@
       </c>
       <c r="F1399" s="48"/>
       <c r="H1399" s="6" t="s">
-        <v>4760</v>
+        <v>4756</v>
       </c>
       <c r="I1399" s="6" t="s">
-        <v>4761</v>
+        <v>4757</v>
       </c>
       <c r="J1399"/>
       <c r="K1399"/>
@@ -44364,20 +44364,20 @@
         <v>805</v>
       </c>
       <c r="F1409" s="48" t="s">
-        <v>4694</v>
+        <v>4690</v>
       </c>
       <c r="G1409" s="48" t="s">
         <v>3014</v>
       </c>
       <c r="H1409" s="6" t="s">
-        <v>4733</v>
+        <v>4729</v>
       </c>
       <c r="I1409" s="6" t="s">
-        <v>4734</v>
+        <v>4730</v>
       </c>
       <c r="J1409"/>
       <c r="K1409" t="s">
-        <v>4732</v>
+        <v>4728</v>
       </c>
       <c r="L1409" s="45" t="s">
         <v>2946</v>
@@ -44682,7 +44682,7 @@
         <v>36</v>
       </c>
       <c r="B1422" t="s">
-        <v>4735</v>
+        <v>4731</v>
       </c>
       <c r="F1422" s="48"/>
       <c r="H1422" s="6" t="s">
@@ -44824,7 +44824,7 @@
       </c>
       <c r="F1428" s="48"/>
       <c r="H1428" s="6" t="s">
-        <v>4695</v>
+        <v>4691</v>
       </c>
       <c r="I1428" s="6" t="s">
         <v>3726</v>
@@ -44951,7 +44951,7 @@
       </c>
       <c r="K1433"/>
       <c r="L1433" s="45" t="s">
-        <v>4736</v>
+        <v>4732</v>
       </c>
       <c r="M1433"/>
     </row>
@@ -44984,7 +44984,7 @@
         <v>36</v>
       </c>
       <c r="B1435" t="s">
-        <v>4737</v>
+        <v>4733</v>
       </c>
       <c r="E1435" s="4" t="s">
         <v>805</v>
@@ -45015,7 +45015,7 @@
       </c>
       <c r="F1436" s="48"/>
       <c r="H1436" s="6" t="s">
-        <v>4696</v>
+        <v>4692</v>
       </c>
       <c r="I1436" s="6" t="s">
         <v>3744</v>
@@ -45158,10 +45158,10 @@
       </c>
       <c r="F1442" s="48"/>
       <c r="H1442" s="6" t="s">
-        <v>4697</v>
+        <v>4693</v>
       </c>
       <c r="I1442" s="6" t="s">
-        <v>4698</v>
+        <v>4694</v>
       </c>
       <c r="J1442" t="s">
         <v>2921</v>
@@ -45631,7 +45631,7 @@
       </c>
       <c r="F1462" s="48"/>
       <c r="H1462" s="6" t="s">
-        <v>4758</v>
+        <v>4754</v>
       </c>
       <c r="I1462" s="6" t="s">
         <v>3810</v>
@@ -45745,10 +45745,10 @@
       </c>
       <c r="F1467" s="48"/>
       <c r="H1467" s="6" t="s">
-        <v>4738</v>
+        <v>4734</v>
       </c>
       <c r="I1467" s="6" t="s">
-        <v>4738</v>
+        <v>4734</v>
       </c>
       <c r="J1467"/>
       <c r="K1467"/>
@@ -45945,7 +45945,7 @@
       </c>
       <c r="K1475"/>
       <c r="L1475" s="45" t="s">
-        <v>4739</v>
+        <v>4735</v>
       </c>
       <c r="M1475"/>
     </row>
@@ -45969,7 +45969,7 @@
       <c r="J1476"/>
       <c r="K1476"/>
       <c r="L1476" s="45" t="s">
-        <v>4740</v>
+        <v>4736</v>
       </c>
       <c r="M1476"/>
     </row>
@@ -46066,7 +46066,7 @@
         <v>3463</v>
       </c>
       <c r="H1480" s="6" t="s">
-        <v>4741</v>
+        <v>4737</v>
       </c>
       <c r="I1480" s="6" t="s">
         <v>3854</v>
@@ -46391,7 +46391,7 @@
         <v>37</v>
       </c>
       <c r="B1494" t="s">
-        <v>4743</v>
+        <v>4739</v>
       </c>
       <c r="E1494" s="4" t="s">
         <v>805</v>
@@ -46456,7 +46456,7 @@
       </c>
       <c r="K1496"/>
       <c r="L1496" s="45" t="s">
-        <v>4742</v>
+        <v>4738</v>
       </c>
       <c r="M1496"/>
     </row>
@@ -46551,7 +46551,7 @@
       </c>
       <c r="F1500" s="48"/>
       <c r="H1500" s="6" t="s">
-        <v>4762</v>
+        <v>4758</v>
       </c>
       <c r="I1500" s="6" t="s">
         <v>3904</v>
@@ -46598,7 +46598,7 @@
         <v>805</v>
       </c>
       <c r="F1502" s="48" t="s">
-        <v>4744</v>
+        <v>4740</v>
       </c>
       <c r="G1502" s="48" t="s">
         <v>3014</v>
@@ -46629,7 +46629,7 @@
         <v>805</v>
       </c>
       <c r="F1503" s="48" t="s">
-        <v>4744</v>
+        <v>4740</v>
       </c>
       <c r="G1503" s="48" t="s">
         <v>3014</v>
@@ -46763,10 +46763,10 @@
       </c>
       <c r="F1508" s="48"/>
       <c r="H1508" s="6" t="s">
-        <v>4745</v>
+        <v>4741</v>
       </c>
       <c r="I1508" s="6" t="s">
-        <v>4747</v>
+        <v>4743</v>
       </c>
       <c r="J1508" t="s">
         <v>2921</v>
@@ -46786,10 +46786,10 @@
       </c>
       <c r="F1509" s="48"/>
       <c r="H1509" s="6" t="s">
-        <v>4746</v>
+        <v>4742</v>
       </c>
       <c r="I1509" s="6" t="s">
-        <v>4748</v>
+        <v>4744</v>
       </c>
       <c r="J1509" t="s">
         <v>2921</v>
@@ -47146,7 +47146,7 @@
       <c r="J1524"/>
       <c r="K1524"/>
       <c r="L1524" s="45" t="s">
-        <v>4749</v>
+        <v>4745</v>
       </c>
       <c r="M1524"/>
     </row>
@@ -47162,17 +47162,17 @@
       </c>
       <c r="F1525" s="48"/>
       <c r="H1525" s="6" t="s">
-        <v>4752</v>
+        <v>4748</v>
       </c>
       <c r="I1525" s="6" t="s">
-        <v>4751</v>
+        <v>4747</v>
       </c>
       <c r="J1525" t="s">
-        <v>4753</v>
+        <v>4749</v>
       </c>
       <c r="K1525"/>
       <c r="L1525" s="45" t="s">
-        <v>4750</v>
+        <v>4746</v>
       </c>
       <c r="M1525"/>
     </row>
@@ -47332,7 +47332,7 @@
         <v>3973</v>
       </c>
       <c r="I1532" s="6" t="s">
-        <v>4754</v>
+        <v>4750</v>
       </c>
       <c r="J1532"/>
       <c r="K1532"/>
@@ -47641,7 +47641,7 @@
         <v>4005</v>
       </c>
       <c r="I1545" s="6" t="s">
-        <v>4699</v>
+        <v>4695</v>
       </c>
       <c r="J1545"/>
       <c r="K1545"/>
@@ -47813,7 +47813,7 @@
       </c>
       <c r="J1552"/>
       <c r="K1552" t="s">
-        <v>4700</v>
+        <v>4696</v>
       </c>
       <c r="L1552" s="45" t="s">
         <v>2338</v>
@@ -47860,7 +47860,7 @@
       </c>
       <c r="F1554" s="48"/>
       <c r="H1554" s="6" t="s">
-        <v>4701</v>
+        <v>4697</v>
       </c>
       <c r="I1554" s="6" t="s">
         <v>4025</v>
@@ -48915,10 +48915,10 @@
       </c>
       <c r="F1603" s="48"/>
       <c r="H1603" s="6" t="s">
-        <v>4702</v>
+        <v>4698</v>
       </c>
       <c r="I1603" s="6" t="s">
-        <v>4703</v>
+        <v>4699</v>
       </c>
       <c r="J1603"/>
       <c r="K1603"/>
@@ -49373,10 +49373,10 @@
       </c>
       <c r="F1623" s="48"/>
       <c r="H1623" s="6" t="s">
-        <v>4704</v>
+        <v>4700</v>
       </c>
       <c r="I1623" s="6" t="s">
-        <v>4704</v>
+        <v>4700</v>
       </c>
       <c r="J1623"/>
       <c r="K1623"/>
@@ -49436,10 +49436,10 @@
       </c>
       <c r="F1626" s="48"/>
       <c r="H1626" s="6" t="s">
-        <v>4705</v>
+        <v>4701</v>
       </c>
       <c r="I1626" s="6" t="s">
-        <v>4706</v>
+        <v>4702</v>
       </c>
       <c r="J1626"/>
       <c r="K1626"/>
@@ -49586,7 +49586,7 @@
         <v>3054</v>
       </c>
       <c r="H1633" s="6" t="s">
-        <v>4708</v>
+        <v>4704</v>
       </c>
       <c r="I1633" s="6" t="s">
         <v>52</v>
@@ -49609,7 +49609,7 @@
         <v>3054</v>
       </c>
       <c r="H1634" s="6" t="s">
-        <v>4707</v>
+        <v>4703</v>
       </c>
       <c r="I1634" s="6" t="s">
         <v>4216</v>
@@ -49701,7 +49701,7 @@
         <v>4223</v>
       </c>
       <c r="I1638" s="6" t="s">
-        <v>4709</v>
+        <v>4705</v>
       </c>
       <c r="J1638"/>
       <c r="K1638"/>
@@ -49721,7 +49721,7 @@
         <v>4225</v>
       </c>
       <c r="I1639" s="6" t="s">
-        <v>4781</v>
+        <v>4777</v>
       </c>
       <c r="J1639"/>
       <c r="K1639"/>
@@ -49879,10 +49879,10 @@
       </c>
       <c r="F1647" s="48"/>
       <c r="H1647" s="6" t="s">
-        <v>4784</v>
+        <v>4780</v>
       </c>
       <c r="I1647" s="6" t="s">
-        <v>4784</v>
+        <v>4780</v>
       </c>
       <c r="J1647"/>
       <c r="K1647"/>
@@ -49966,10 +49966,10 @@
       </c>
       <c r="F1651" s="48"/>
       <c r="H1651" s="6" t="s">
-        <v>4782</v>
+        <v>4778</v>
       </c>
       <c r="I1651" s="6" t="s">
-        <v>4783</v>
+        <v>4779</v>
       </c>
       <c r="J1651"/>
       <c r="K1651"/>
@@ -50098,7 +50098,7 @@
       </c>
       <c r="F1657" s="48"/>
       <c r="H1657" s="6" t="s">
-        <v>4710</v>
+        <v>4706</v>
       </c>
       <c r="I1657" s="6" t="s">
         <v>4265</v>
@@ -50148,7 +50148,7 @@
       <c r="J1659"/>
       <c r="K1659"/>
       <c r="L1659" s="45" t="s">
-        <v>4711</v>
+        <v>4707</v>
       </c>
       <c r="M1659"/>
     </row>
@@ -50169,7 +50169,7 @@
       <c r="J1660"/>
       <c r="K1660"/>
       <c r="L1660" s="45" t="s">
-        <v>4712</v>
+        <v>4708</v>
       </c>
       <c r="M1660"/>
     </row>
@@ -50190,7 +50190,7 @@
       <c r="J1661"/>
       <c r="K1661"/>
       <c r="L1661" s="45" t="s">
-        <v>4713</v>
+        <v>4709</v>
       </c>
       <c r="M1661"/>
     </row>
@@ -50230,7 +50230,7 @@
       </c>
       <c r="F1663" s="48"/>
       <c r="H1663" s="6" t="s">
-        <v>4714</v>
+        <v>4710</v>
       </c>
       <c r="I1663" s="6" t="s">
         <v>4273</v>
@@ -50356,10 +50356,10 @@
       </c>
       <c r="F1669" s="48"/>
       <c r="H1669" s="6" t="s">
-        <v>4715</v>
+        <v>4711</v>
       </c>
       <c r="I1669" s="6" t="s">
-        <v>4716</v>
+        <v>4712</v>
       </c>
       <c r="J1669"/>
       <c r="K1669"/>
@@ -51078,7 +51078,7 @@
       </c>
       <c r="K1704"/>
       <c r="L1704" s="45" t="s">
-        <v>4379</v>
+        <v>4785</v>
       </c>
       <c r="M1704"/>
     </row>
@@ -51133,15 +51133,15 @@
       </c>
       <c r="F1707" s="48"/>
       <c r="H1707" s="6" t="s">
-        <v>4380</v>
+        <v>4379</v>
       </c>
       <c r="I1707" s="6" t="s">
-        <v>4380</v>
+        <v>4379</v>
       </c>
       <c r="J1707"/>
       <c r="K1707"/>
       <c r="L1707" s="45" t="s">
-        <v>4381</v>
+        <v>4380</v>
       </c>
       <c r="M1707"/>
     </row>
@@ -51151,15 +51151,15 @@
       </c>
       <c r="F1708" s="48"/>
       <c r="H1708" s="6" t="s">
-        <v>4382</v>
+        <v>4381</v>
       </c>
       <c r="I1708" s="6" t="s">
-        <v>4382</v>
+        <v>4381</v>
       </c>
       <c r="J1708"/>
       <c r="K1708"/>
       <c r="L1708" s="45" t="s">
-        <v>4383</v>
+        <v>4382</v>
       </c>
       <c r="M1708"/>
     </row>
@@ -51175,15 +51175,15 @@
       </c>
       <c r="F1709" s="48"/>
       <c r="H1709" s="6" t="s">
+        <v>4383</v>
+      </c>
+      <c r="I1709" s="6" t="s">
         <v>4384</v>
-      </c>
-      <c r="I1709" s="6" t="s">
-        <v>4385</v>
       </c>
       <c r="J1709"/>
       <c r="K1709"/>
       <c r="L1709" s="45" t="s">
-        <v>4386</v>
+        <v>4385</v>
       </c>
       <c r="M1709"/>
     </row>
@@ -51217,15 +51217,15 @@
       </c>
       <c r="F1711" s="48"/>
       <c r="H1711" s="6" t="s">
+        <v>4386</v>
+      </c>
+      <c r="I1711" s="6" t="s">
         <v>4387</v>
-      </c>
-      <c r="I1711" s="6" t="s">
-        <v>4388</v>
       </c>
       <c r="J1711"/>
       <c r="K1711"/>
       <c r="L1711" s="45" t="s">
-        <v>4389</v>
+        <v>4388</v>
       </c>
       <c r="M1711"/>
     </row>
@@ -51241,15 +51241,15 @@
       </c>
       <c r="F1712" s="48"/>
       <c r="H1712" s="6" t="s">
+        <v>4389</v>
+      </c>
+      <c r="I1712" s="6" t="s">
         <v>4390</v>
-      </c>
-      <c r="I1712" s="6" t="s">
-        <v>4391</v>
       </c>
       <c r="J1712"/>
       <c r="K1712"/>
       <c r="L1712" s="45" t="s">
-        <v>4392</v>
+        <v>4391</v>
       </c>
       <c r="M1712"/>
     </row>
@@ -51262,15 +51262,15 @@
       </c>
       <c r="F1713" s="48"/>
       <c r="H1713" s="6" t="s">
+        <v>4392</v>
+      </c>
+      <c r="I1713" s="6" t="s">
         <v>4393</v>
-      </c>
-      <c r="I1713" s="6" t="s">
-        <v>4394</v>
       </c>
       <c r="J1713"/>
       <c r="K1713"/>
       <c r="L1713" s="45" t="s">
-        <v>4395</v>
+        <v>4394</v>
       </c>
       <c r="M1713"/>
     </row>
@@ -51301,15 +51301,15 @@
       </c>
       <c r="F1715" s="48"/>
       <c r="H1715" s="6" t="s">
+        <v>4395</v>
+      </c>
+      <c r="I1715" s="6" t="s">
         <v>4396</v>
-      </c>
-      <c r="I1715" s="6" t="s">
-        <v>4397</v>
       </c>
       <c r="J1715"/>
       <c r="K1715"/>
       <c r="L1715" s="45" t="s">
-        <v>4398</v>
+        <v>4397</v>
       </c>
       <c r="M1715"/>
     </row>
@@ -51325,15 +51325,15 @@
       </c>
       <c r="F1716" s="48"/>
       <c r="H1716" s="6" t="s">
+        <v>4398</v>
+      </c>
+      <c r="I1716" s="6" t="s">
         <v>4399</v>
-      </c>
-      <c r="I1716" s="6" t="s">
-        <v>4400</v>
       </c>
       <c r="J1716"/>
       <c r="K1716"/>
       <c r="L1716" s="45" t="s">
-        <v>4401</v>
+        <v>4400</v>
       </c>
       <c r="M1716"/>
     </row>
@@ -51346,15 +51346,15 @@
       </c>
       <c r="F1717" s="48"/>
       <c r="H1717" s="6" t="s">
+        <v>4401</v>
+      </c>
+      <c r="I1717" s="6" t="s">
         <v>4402</v>
-      </c>
-      <c r="I1717" s="6" t="s">
-        <v>4403</v>
       </c>
       <c r="J1717"/>
       <c r="K1717"/>
       <c r="L1717" s="45" t="s">
-        <v>4404</v>
+        <v>4403</v>
       </c>
       <c r="M1717"/>
     </row>
@@ -51370,15 +51370,15 @@
       </c>
       <c r="F1718" s="48"/>
       <c r="H1718" s="6" t="s">
+        <v>4404</v>
+      </c>
+      <c r="I1718" s="6" t="s">
         <v>4405</v>
-      </c>
-      <c r="I1718" s="6" t="s">
-        <v>4406</v>
       </c>
       <c r="J1718"/>
       <c r="K1718"/>
       <c r="L1718" s="45" t="s">
-        <v>4407</v>
+        <v>4406</v>
       </c>
       <c r="M1718"/>
     </row>
@@ -51394,15 +51394,15 @@
       </c>
       <c r="F1719" s="48"/>
       <c r="H1719" s="6" t="s">
+        <v>4407</v>
+      </c>
+      <c r="I1719" s="6" t="s">
         <v>4408</v>
-      </c>
-      <c r="I1719" s="6" t="s">
-        <v>4409</v>
       </c>
       <c r="J1719"/>
       <c r="K1719"/>
       <c r="L1719" s="45" t="s">
-        <v>4410</v>
+        <v>4409</v>
       </c>
       <c r="M1719"/>
     </row>
@@ -51418,15 +51418,15 @@
       </c>
       <c r="F1720" s="48"/>
       <c r="H1720" s="6" t="s">
+        <v>4410</v>
+      </c>
+      <c r="I1720" s="6" t="s">
         <v>4411</v>
-      </c>
-      <c r="I1720" s="6" t="s">
-        <v>4412</v>
       </c>
       <c r="J1720"/>
       <c r="K1720"/>
       <c r="L1720" s="45" t="s">
-        <v>4413</v>
+        <v>4412</v>
       </c>
       <c r="M1720"/>
     </row>
@@ -51442,15 +51442,15 @@
       </c>
       <c r="F1721" s="48"/>
       <c r="H1721" s="6" t="s">
+        <v>4413</v>
+      </c>
+      <c r="I1721" s="6" t="s">
         <v>4414</v>
-      </c>
-      <c r="I1721" s="6" t="s">
-        <v>4415</v>
       </c>
       <c r="J1721"/>
       <c r="K1721"/>
       <c r="L1721" s="45" t="s">
-        <v>4416</v>
+        <v>4415</v>
       </c>
       <c r="M1721"/>
     </row>
@@ -51466,15 +51466,15 @@
       </c>
       <c r="F1722" s="48"/>
       <c r="H1722" s="6" t="s">
+        <v>4416</v>
+      </c>
+      <c r="I1722" s="6" t="s">
         <v>4417</v>
-      </c>
-      <c r="I1722" s="6" t="s">
-        <v>4418</v>
       </c>
       <c r="J1722"/>
       <c r="K1722"/>
       <c r="L1722" s="45" t="s">
-        <v>4419</v>
+        <v>4418</v>
       </c>
       <c r="M1722"/>
     </row>
@@ -51490,15 +51490,15 @@
       </c>
       <c r="F1723" s="48"/>
       <c r="H1723" s="6" t="s">
+        <v>4419</v>
+      </c>
+      <c r="I1723" s="6" t="s">
         <v>4420</v>
-      </c>
-      <c r="I1723" s="6" t="s">
-        <v>4421</v>
       </c>
       <c r="J1723"/>
       <c r="K1723"/>
       <c r="L1723" s="45" t="s">
-        <v>4422</v>
+        <v>4421</v>
       </c>
       <c r="M1723"/>
     </row>
@@ -51508,15 +51508,15 @@
       </c>
       <c r="F1724" s="48"/>
       <c r="H1724" s="6" t="s">
-        <v>4423</v>
+        <v>4422</v>
       </c>
       <c r="I1724" s="6" t="s">
-        <v>4423</v>
+        <v>4422</v>
       </c>
       <c r="J1724"/>
       <c r="K1724"/>
       <c r="L1724" s="45" t="s">
-        <v>4424</v>
+        <v>4423</v>
       </c>
       <c r="M1724"/>
     </row>
@@ -51529,15 +51529,15 @@
       </c>
       <c r="F1725" s="48"/>
       <c r="H1725" s="6" t="s">
+        <v>4424</v>
+      </c>
+      <c r="I1725" s="6" t="s">
         <v>4425</v>
-      </c>
-      <c r="I1725" s="6" t="s">
-        <v>4426</v>
       </c>
       <c r="J1725"/>
       <c r="K1725"/>
       <c r="L1725" s="45" t="s">
-        <v>4427</v>
+        <v>4426</v>
       </c>
       <c r="M1725"/>
     </row>
@@ -51550,15 +51550,15 @@
       </c>
       <c r="F1726" s="48"/>
       <c r="H1726" s="6" t="s">
+        <v>4427</v>
+      </c>
+      <c r="I1726" s="6" t="s">
         <v>4428</v>
-      </c>
-      <c r="I1726" s="6" t="s">
-        <v>4429</v>
       </c>
       <c r="J1726"/>
       <c r="K1726"/>
       <c r="L1726" s="45" t="s">
-        <v>4430</v>
+        <v>4429</v>
       </c>
       <c r="M1726"/>
     </row>
@@ -51592,15 +51592,15 @@
       </c>
       <c r="F1728" s="48"/>
       <c r="H1728" s="6" t="s">
+        <v>4430</v>
+      </c>
+      <c r="I1728" s="6" t="s">
         <v>4431</v>
-      </c>
-      <c r="I1728" s="6" t="s">
-        <v>4432</v>
       </c>
       <c r="J1728"/>
       <c r="K1728"/>
       <c r="L1728" s="45" t="s">
-        <v>4433</v>
+        <v>4432</v>
       </c>
       <c r="M1728"/>
     </row>
@@ -51613,15 +51613,15 @@
       </c>
       <c r="F1729" s="48"/>
       <c r="H1729" s="6" t="s">
+        <v>4433</v>
+      </c>
+      <c r="I1729" s="6" t="s">
         <v>4434</v>
-      </c>
-      <c r="I1729" s="6" t="s">
-        <v>4435</v>
       </c>
       <c r="J1729"/>
       <c r="K1729"/>
       <c r="L1729" s="45" t="s">
-        <v>4436</v>
+        <v>4435</v>
       </c>
       <c r="M1729"/>
     </row>
@@ -51634,15 +51634,15 @@
       </c>
       <c r="F1730" s="48"/>
       <c r="H1730" s="6" t="s">
+        <v>4436</v>
+      </c>
+      <c r="I1730" s="6" t="s">
         <v>4437</v>
-      </c>
-      <c r="I1730" s="6" t="s">
-        <v>4438</v>
       </c>
       <c r="J1730"/>
       <c r="K1730"/>
       <c r="L1730" s="45" t="s">
-        <v>4439</v>
+        <v>4438</v>
       </c>
       <c r="M1730"/>
     </row>
@@ -51655,15 +51655,15 @@
       </c>
       <c r="F1731" s="48"/>
       <c r="H1731" s="6" t="s">
+        <v>4439</v>
+      </c>
+      <c r="I1731" s="6" t="s">
         <v>4440</v>
-      </c>
-      <c r="I1731" s="6" t="s">
-        <v>4441</v>
       </c>
       <c r="J1731"/>
       <c r="K1731"/>
       <c r="L1731" s="45" t="s">
-        <v>4442</v>
+        <v>4441</v>
       </c>
       <c r="M1731"/>
     </row>
@@ -51676,15 +51676,15 @@
       </c>
       <c r="F1732" s="48"/>
       <c r="H1732" s="6" t="s">
+        <v>4442</v>
+      </c>
+      <c r="I1732" s="6" t="s">
         <v>4443</v>
-      </c>
-      <c r="I1732" s="6" t="s">
-        <v>4444</v>
       </c>
       <c r="J1732"/>
       <c r="K1732"/>
       <c r="L1732" s="45" t="s">
-        <v>4445</v>
+        <v>4444</v>
       </c>
       <c r="M1732"/>
     </row>
@@ -51697,15 +51697,15 @@
       </c>
       <c r="F1733" s="48"/>
       <c r="H1733" s="6" t="s">
+        <v>4445</v>
+      </c>
+      <c r="I1733" s="6" t="s">
         <v>4446</v>
-      </c>
-      <c r="I1733" s="6" t="s">
-        <v>4447</v>
       </c>
       <c r="J1733"/>
       <c r="K1733"/>
       <c r="L1733" s="45" t="s">
-        <v>4448</v>
+        <v>4447</v>
       </c>
       <c r="M1733"/>
     </row>
@@ -51718,15 +51718,15 @@
       </c>
       <c r="F1734" s="48"/>
       <c r="H1734" s="6" t="s">
-        <v>4449</v>
+        <v>4783</v>
       </c>
       <c r="I1734" s="6" t="s">
-        <v>4450</v>
+        <v>4448</v>
       </c>
       <c r="J1734"/>
       <c r="K1734"/>
       <c r="L1734" s="45" t="s">
-        <v>4451</v>
+        <v>4449</v>
       </c>
       <c r="M1734"/>
     </row>
@@ -51739,15 +51739,15 @@
       </c>
       <c r="F1735" s="48"/>
       <c r="H1735" s="6" t="s">
-        <v>4452</v>
+        <v>4450</v>
       </c>
       <c r="I1735" s="6" t="s">
-        <v>4453</v>
+        <v>4451</v>
       </c>
       <c r="J1735"/>
       <c r="K1735"/>
       <c r="L1735" s="45" t="s">
-        <v>4454</v>
+        <v>4452</v>
       </c>
       <c r="M1735"/>
     </row>
@@ -51760,15 +51760,15 @@
       </c>
       <c r="F1736" s="48"/>
       <c r="H1736" s="6" t="s">
-        <v>4455</v>
+        <v>4453</v>
       </c>
       <c r="I1736" s="6" t="s">
-        <v>4456</v>
+        <v>4454</v>
       </c>
       <c r="J1736"/>
       <c r="K1736"/>
       <c r="L1736" s="45" t="s">
-        <v>4457</v>
+        <v>4455</v>
       </c>
       <c r="M1736"/>
     </row>
@@ -51781,15 +51781,15 @@
       </c>
       <c r="F1737" s="48"/>
       <c r="H1737" s="6" t="s">
-        <v>4458</v>
+        <v>4456</v>
       </c>
       <c r="I1737" s="6" t="s">
-        <v>4459</v>
+        <v>4457</v>
       </c>
       <c r="J1737"/>
       <c r="K1737"/>
       <c r="L1737" s="45" t="s">
-        <v>4460</v>
+        <v>4458</v>
       </c>
       <c r="M1737"/>
     </row>
@@ -51802,15 +51802,15 @@
       </c>
       <c r="F1738" s="48"/>
       <c r="H1738" s="6" t="s">
-        <v>4461</v>
+        <v>4459</v>
       </c>
       <c r="I1738" s="6" t="s">
-        <v>4462</v>
+        <v>4460</v>
       </c>
       <c r="J1738"/>
       <c r="K1738"/>
       <c r="L1738" s="45" t="s">
-        <v>4463</v>
+        <v>4461</v>
       </c>
       <c r="M1738"/>
     </row>
@@ -51820,15 +51820,15 @@
       </c>
       <c r="F1739" s="48"/>
       <c r="H1739" s="6" t="s">
-        <v>4464</v>
+        <v>4462</v>
       </c>
       <c r="I1739" s="6" t="s">
-        <v>4464</v>
+        <v>4462</v>
       </c>
       <c r="J1739"/>
       <c r="K1739"/>
       <c r="L1739" s="45" t="s">
-        <v>4465</v>
+        <v>4463</v>
       </c>
       <c r="M1739"/>
     </row>
@@ -51838,15 +51838,15 @@
       </c>
       <c r="F1740" s="48"/>
       <c r="H1740" s="6" t="s">
-        <v>4466</v>
+        <v>4464</v>
       </c>
       <c r="I1740" s="6" t="s">
-        <v>4466</v>
+        <v>4464</v>
       </c>
       <c r="J1740"/>
       <c r="K1740"/>
       <c r="L1740" s="45" t="s">
-        <v>4467</v>
+        <v>4465</v>
       </c>
       <c r="M1740"/>
     </row>
@@ -51856,15 +51856,15 @@
       </c>
       <c r="F1741" s="48"/>
       <c r="H1741" s="6" t="s">
-        <v>4468</v>
+        <v>4466</v>
       </c>
       <c r="I1741" s="6" t="s">
-        <v>4468</v>
+        <v>4466</v>
       </c>
       <c r="J1741"/>
       <c r="K1741"/>
       <c r="L1741" s="45" t="s">
-        <v>4469</v>
+        <v>4467</v>
       </c>
       <c r="M1741"/>
     </row>
@@ -51877,15 +51877,15 @@
       </c>
       <c r="F1742" s="48"/>
       <c r="H1742" s="6" t="s">
-        <v>4470</v>
+        <v>4468</v>
       </c>
       <c r="I1742" s="6" t="s">
-        <v>4471</v>
+        <v>4469</v>
       </c>
       <c r="J1742"/>
       <c r="K1742"/>
       <c r="L1742" s="45" t="s">
-        <v>4472</v>
+        <v>4470</v>
       </c>
       <c r="M1742"/>
     </row>
@@ -51898,15 +51898,15 @@
       </c>
       <c r="F1743" s="48"/>
       <c r="H1743" s="6" t="s">
-        <v>4473</v>
+        <v>4471</v>
       </c>
       <c r="I1743" s="6" t="s">
-        <v>4474</v>
+        <v>4472</v>
       </c>
       <c r="J1743"/>
       <c r="K1743"/>
       <c r="L1743" s="45" t="s">
-        <v>4475</v>
+        <v>4473</v>
       </c>
       <c r="M1743"/>
     </row>
@@ -51919,15 +51919,15 @@
       </c>
       <c r="F1744" s="48"/>
       <c r="H1744" s="6" t="s">
-        <v>4476</v>
+        <v>4782</v>
       </c>
       <c r="I1744" s="6" t="s">
-        <v>4477</v>
+        <v>4474</v>
       </c>
       <c r="J1744"/>
       <c r="K1744"/>
       <c r="L1744" s="45" t="s">
-        <v>4478</v>
+        <v>4475</v>
       </c>
       <c r="M1744"/>
     </row>
@@ -51940,15 +51940,15 @@
       </c>
       <c r="F1745" s="48"/>
       <c r="H1745" s="6" t="s">
-        <v>4479</v>
+        <v>4476</v>
       </c>
       <c r="I1745" s="6" t="s">
-        <v>4480</v>
+        <v>4477</v>
       </c>
       <c r="J1745"/>
       <c r="K1745"/>
       <c r="L1745" s="45" t="s">
-        <v>4481</v>
+        <v>4478</v>
       </c>
       <c r="M1745"/>
     </row>
@@ -51958,15 +51958,15 @@
       </c>
       <c r="F1746" s="48"/>
       <c r="H1746" s="6" t="s">
-        <v>4482</v>
+        <v>4479</v>
       </c>
       <c r="I1746" s="6" t="s">
-        <v>4482</v>
+        <v>4479</v>
       </c>
       <c r="J1746"/>
       <c r="K1746"/>
       <c r="L1746" s="45" t="s">
-        <v>4483</v>
+        <v>4480</v>
       </c>
       <c r="M1746"/>
     </row>
@@ -51976,15 +51976,15 @@
       </c>
       <c r="F1747" s="48"/>
       <c r="H1747" s="6" t="s">
-        <v>4484</v>
+        <v>4481</v>
       </c>
       <c r="I1747" s="6" t="s">
-        <v>4484</v>
+        <v>4481</v>
       </c>
       <c r="J1747"/>
       <c r="K1747"/>
       <c r="L1747" s="45" t="s">
-        <v>4485</v>
+        <v>4482</v>
       </c>
       <c r="M1747"/>
     </row>
@@ -51997,15 +51997,15 @@
       </c>
       <c r="F1748" s="48"/>
       <c r="H1748" s="6" t="s">
-        <v>4486</v>
+        <v>4483</v>
       </c>
       <c r="I1748" s="6" t="s">
-        <v>4487</v>
+        <v>4484</v>
       </c>
       <c r="J1748"/>
       <c r="K1748"/>
       <c r="L1748" s="45" t="s">
-        <v>4488</v>
+        <v>4485</v>
       </c>
       <c r="M1748"/>
     </row>
@@ -52046,7 +52046,7 @@
       </c>
       <c r="K1750"/>
       <c r="L1750" s="45" t="s">
-        <v>4379</v>
+        <v>4785</v>
       </c>
       <c r="M1750"/>
     </row>
@@ -52067,7 +52067,7 @@
       <c r="J1751"/>
       <c r="K1751"/>
       <c r="L1751" s="45" t="s">
-        <v>4489</v>
+        <v>4486</v>
       </c>
       <c r="M1751"/>
     </row>
@@ -52077,10 +52077,10 @@
       </c>
       <c r="F1752" s="48"/>
       <c r="H1752" s="6" t="s">
-        <v>4490</v>
+        <v>4487</v>
       </c>
       <c r="I1752" s="6" t="s">
-        <v>4490</v>
+        <v>4487</v>
       </c>
       <c r="J1752"/>
       <c r="K1752"/>
@@ -52103,7 +52103,7 @@
       <c r="J1753"/>
       <c r="K1753"/>
       <c r="L1753" s="45" t="s">
-        <v>4491</v>
+        <v>4488</v>
       </c>
       <c r="M1753"/>
     </row>
@@ -52134,7 +52134,7 @@
         <v>2224</v>
       </c>
       <c r="L1754" s="45" t="s">
-        <v>4492</v>
+        <v>4489</v>
       </c>
       <c r="M1754"/>
     </row>
@@ -52147,10 +52147,10 @@
       </c>
       <c r="F1755" s="48"/>
       <c r="H1755" s="6" t="s">
-        <v>4493</v>
+        <v>4490</v>
       </c>
       <c r="I1755" s="6" t="s">
-        <v>4494</v>
+        <v>4491</v>
       </c>
       <c r="J1755"/>
       <c r="K1755"/>
@@ -52165,15 +52165,15 @@
       </c>
       <c r="F1756" s="48"/>
       <c r="H1756" s="6" t="s">
-        <v>4495</v>
+        <v>4492</v>
       </c>
       <c r="I1756" s="6" t="s">
-        <v>4495</v>
+        <v>4492</v>
       </c>
       <c r="J1756"/>
       <c r="K1756"/>
       <c r="L1756" s="45" t="s">
-        <v>4496</v>
+        <v>4493</v>
       </c>
       <c r="M1756"/>
     </row>
@@ -52186,10 +52186,10 @@
       </c>
       <c r="F1757" s="48"/>
       <c r="H1757" s="6" t="s">
-        <v>4717</v>
+        <v>4713</v>
       </c>
       <c r="I1757" s="6" t="s">
-        <v>4497</v>
+        <v>4494</v>
       </c>
       <c r="J1757"/>
       <c r="K1757"/>
@@ -52207,15 +52207,15 @@
       </c>
       <c r="F1758" s="48"/>
       <c r="H1758" s="6" t="s">
-        <v>4498</v>
+        <v>4495</v>
       </c>
       <c r="I1758" s="6" t="s">
-        <v>4499</v>
+        <v>4496</v>
       </c>
       <c r="J1758"/>
       <c r="K1758"/>
       <c r="L1758" s="45" t="s">
-        <v>4500</v>
+        <v>4497</v>
       </c>
       <c r="M1758"/>
     </row>
@@ -52227,15 +52227,15 @@
         <v>3463</v>
       </c>
       <c r="H1759" s="6" t="s">
-        <v>4501</v>
+        <v>4498</v>
       </c>
       <c r="I1759" s="6" t="s">
-        <v>4501</v>
+        <v>4498</v>
       </c>
       <c r="J1759"/>
       <c r="K1759"/>
       <c r="L1759" s="45" t="s">
-        <v>4502</v>
+        <v>4499</v>
       </c>
       <c r="M1759"/>
     </row>
@@ -52248,7 +52248,7 @@
       </c>
       <c r="F1760" s="48"/>
       <c r="H1760" s="6" t="s">
-        <v>3569</v>
+        <v>4684</v>
       </c>
       <c r="I1760" s="6" t="s">
         <v>3569</v>
@@ -52269,15 +52269,15 @@
       </c>
       <c r="F1761" s="48"/>
       <c r="H1761" s="6" t="s">
-        <v>4503</v>
+        <v>4500</v>
       </c>
       <c r="I1761" s="6" t="s">
-        <v>4504</v>
+        <v>4501</v>
       </c>
       <c r="J1761"/>
       <c r="K1761"/>
       <c r="L1761" s="45" t="s">
-        <v>4505</v>
+        <v>4502</v>
       </c>
       <c r="M1761"/>
     </row>
@@ -52293,15 +52293,15 @@
       </c>
       <c r="F1762" s="48"/>
       <c r="H1762" s="6" t="s">
-        <v>4506</v>
+        <v>4503</v>
       </c>
       <c r="I1762" s="6" t="s">
-        <v>4507</v>
+        <v>4504</v>
       </c>
       <c r="J1762"/>
       <c r="K1762"/>
       <c r="L1762" s="45" t="s">
-        <v>4508</v>
+        <v>4505</v>
       </c>
       <c r="M1762"/>
     </row>
@@ -52314,15 +52314,15 @@
       </c>
       <c r="F1763" s="48"/>
       <c r="H1763" s="6" t="s">
-        <v>4509</v>
+        <v>4784</v>
       </c>
       <c r="I1763" s="6" t="s">
-        <v>4510</v>
+        <v>4506</v>
       </c>
       <c r="J1763"/>
       <c r="K1763"/>
       <c r="L1763" s="45" t="s">
-        <v>4511</v>
+        <v>4507</v>
       </c>
       <c r="M1763"/>
     </row>
@@ -52338,10 +52338,10 @@
       </c>
       <c r="F1764" s="48"/>
       <c r="H1764" s="6" t="s">
-        <v>4512</v>
+        <v>4508</v>
       </c>
       <c r="I1764" s="6" t="s">
-        <v>4513</v>
+        <v>4509</v>
       </c>
       <c r="J1764"/>
       <c r="K1764"/>
@@ -52362,15 +52362,15 @@
       </c>
       <c r="F1765" s="48"/>
       <c r="H1765" s="6" t="s">
-        <v>4514</v>
+        <v>4510</v>
       </c>
       <c r="I1765" s="6" t="s">
-        <v>4515</v>
+        <v>4511</v>
       </c>
       <c r="J1765"/>
       <c r="K1765"/>
       <c r="L1765" s="45" t="s">
-        <v>4516</v>
+        <v>4512</v>
       </c>
       <c r="M1765"/>
     </row>
@@ -52385,23 +52385,23 @@
         <v>805</v>
       </c>
       <c r="F1766" s="48" t="s">
-        <v>4719</v>
+        <v>4715</v>
       </c>
       <c r="G1766" s="48" t="s">
         <v>2896</v>
       </c>
       <c r="H1766" s="6" t="s">
-        <v>4517</v>
+        <v>4513</v>
       </c>
       <c r="I1766" s="6" t="s">
-        <v>4518</v>
+        <v>4514</v>
       </c>
       <c r="J1766"/>
       <c r="K1766" t="s">
-        <v>4519</v>
+        <v>4515</v>
       </c>
       <c r="L1766" s="45" t="s">
-        <v>4520</v>
+        <v>4516</v>
       </c>
       <c r="M1766"/>
     </row>
@@ -52416,23 +52416,23 @@
         <v>805</v>
       </c>
       <c r="F1767" s="48" t="s">
-        <v>4719</v>
+        <v>4715</v>
       </c>
       <c r="G1767" s="48" t="s">
         <v>2896</v>
       </c>
       <c r="H1767" s="6" t="s">
-        <v>4521</v>
+        <v>4517</v>
       </c>
       <c r="I1767" s="6" t="s">
-        <v>4522</v>
+        <v>4518</v>
       </c>
       <c r="J1767"/>
       <c r="K1767" t="s">
+        <v>4515</v>
+      </c>
+      <c r="L1767" s="45" t="s">
         <v>4519</v>
-      </c>
-      <c r="L1767" s="45" t="s">
-        <v>4523</v>
       </c>
       <c r="M1767"/>
     </row>
@@ -52447,23 +52447,23 @@
         <v>805</v>
       </c>
       <c r="F1768" s="48" t="s">
-        <v>4720</v>
+        <v>4716</v>
       </c>
       <c r="G1768" s="48" t="s">
         <v>2896</v>
       </c>
       <c r="H1768" s="6" t="s">
-        <v>4524</v>
+        <v>4520</v>
       </c>
       <c r="I1768" s="6" t="s">
-        <v>4525</v>
+        <v>4521</v>
       </c>
       <c r="J1768"/>
       <c r="K1768" t="s">
-        <v>4526</v>
+        <v>4522</v>
       </c>
       <c r="L1768" s="45" t="s">
-        <v>4527</v>
+        <v>4523</v>
       </c>
       <c r="M1768"/>
     </row>
@@ -52478,23 +52478,23 @@
         <v>805</v>
       </c>
       <c r="F1769" s="48" t="s">
-        <v>4720</v>
+        <v>4716</v>
       </c>
       <c r="G1769" s="48" t="s">
         <v>2896</v>
       </c>
       <c r="H1769" s="6" t="s">
-        <v>4528</v>
+        <v>4524</v>
       </c>
       <c r="I1769" s="6" t="s">
-        <v>4529</v>
+        <v>4525</v>
       </c>
       <c r="J1769"/>
       <c r="K1769" t="s">
+        <v>4522</v>
+      </c>
+      <c r="L1769" s="45" t="s">
         <v>4526</v>
-      </c>
-      <c r="L1769" s="45" t="s">
-        <v>4530</v>
       </c>
       <c r="M1769"/>
     </row>
@@ -52510,14 +52510,14 @@
       </c>
       <c r="F1770" s="48"/>
       <c r="H1770" s="6" t="s">
-        <v>4531</v>
+        <v>4527</v>
       </c>
       <c r="I1770" s="6" t="s">
-        <v>4532</v>
+        <v>4528</v>
       </c>
       <c r="J1770"/>
       <c r="K1770" t="s">
-        <v>4533</v>
+        <v>4529</v>
       </c>
       <c r="L1770" s="45" t="s">
         <v>3376</v>
@@ -52538,17 +52538,17 @@
         <v>2896</v>
       </c>
       <c r="H1771" s="6" t="s">
-        <v>4534</v>
+        <v>4530</v>
       </c>
       <c r="I1771" s="6" t="s">
-        <v>4534</v>
+        <v>4530</v>
       </c>
       <c r="J1771"/>
       <c r="K1771" t="s">
         <v>3371</v>
       </c>
       <c r="L1771" s="45" t="s">
-        <v>4535</v>
+        <v>4531</v>
       </c>
       <c r="M1771"/>
     </row>
@@ -52563,20 +52563,20 @@
         <v>805</v>
       </c>
       <c r="F1772" s="48" t="s">
-        <v>4718</v>
+        <v>4714</v>
       </c>
       <c r="G1772" s="48" t="s">
         <v>2896</v>
       </c>
       <c r="H1772" s="6" t="s">
-        <v>4536</v>
+        <v>4532</v>
       </c>
       <c r="I1772" s="6" t="s">
-        <v>4537</v>
+        <v>4533</v>
       </c>
       <c r="J1772"/>
       <c r="K1772" t="s">
-        <v>4538</v>
+        <v>4534</v>
       </c>
       <c r="L1772" s="45" t="s">
         <v>2338</v>
@@ -52591,23 +52591,23 @@
         <v>2510</v>
       </c>
       <c r="F1773" s="48" t="s">
-        <v>4554</v>
+        <v>4550</v>
       </c>
       <c r="G1773" s="48" t="s">
         <v>2896</v>
       </c>
       <c r="H1773" s="6" t="s">
-        <v>4539</v>
+        <v>4535</v>
       </c>
       <c r="I1773" s="6" t="s">
-        <v>4539</v>
+        <v>4535</v>
       </c>
       <c r="J1773"/>
       <c r="K1773" t="s">
-        <v>4540</v>
+        <v>4536</v>
       </c>
       <c r="L1773" s="45" t="s">
-        <v>4541</v>
+        <v>4537</v>
       </c>
       <c r="M1773"/>
     </row>
@@ -52626,12 +52626,12 @@
         <v>3268</v>
       </c>
       <c r="I1774" s="6" t="s">
-        <v>4542</v>
+        <v>4538</v>
       </c>
       <c r="J1774"/>
       <c r="K1774"/>
       <c r="L1774" s="45" t="s">
-        <v>4543</v>
+        <v>4539</v>
       </c>
       <c r="M1774"/>
     </row>
@@ -52647,15 +52647,15 @@
       </c>
       <c r="F1775" s="48"/>
       <c r="H1775" s="6" t="s">
-        <v>4544</v>
+        <v>4540</v>
       </c>
       <c r="I1775" s="6" t="s">
-        <v>4545</v>
+        <v>4541</v>
       </c>
       <c r="J1775"/>
       <c r="K1775"/>
       <c r="L1775" s="45" t="s">
-        <v>4546</v>
+        <v>4542</v>
       </c>
       <c r="M1775"/>
     </row>
@@ -52671,7 +52671,7 @@
       </c>
       <c r="F1776" s="48"/>
       <c r="H1776" s="6" t="s">
-        <v>4547</v>
+        <v>4543</v>
       </c>
       <c r="I1776" s="6" t="s">
         <v>210</v>
@@ -52689,15 +52689,15 @@
       </c>
       <c r="F1777" s="48"/>
       <c r="H1777" s="6" t="s">
-        <v>4548</v>
+        <v>4544</v>
       </c>
       <c r="I1777" s="6" t="s">
-        <v>4548</v>
+        <v>4544</v>
       </c>
       <c r="J1777"/>
       <c r="K1777"/>
       <c r="L1777" s="45" t="s">
-        <v>4549</v>
+        <v>4545</v>
       </c>
       <c r="M1777"/>
     </row>
@@ -52707,15 +52707,15 @@
       </c>
       <c r="F1778" s="48"/>
       <c r="H1778" s="6" t="s">
-        <v>4550</v>
+        <v>4546</v>
       </c>
       <c r="I1778" s="6" t="s">
-        <v>4550</v>
+        <v>4546</v>
       </c>
       <c r="J1778"/>
       <c r="K1778"/>
       <c r="L1778" s="45" t="s">
-        <v>4551</v>
+        <v>4547</v>
       </c>
       <c r="M1778"/>
     </row>
@@ -52725,15 +52725,15 @@
       </c>
       <c r="F1779" s="48"/>
       <c r="H1779" s="6" t="s">
-        <v>4552</v>
+        <v>4548</v>
       </c>
       <c r="I1779" s="6" t="s">
-        <v>4552</v>
+        <v>4548</v>
       </c>
       <c r="J1779"/>
       <c r="K1779"/>
       <c r="L1779" s="45" t="s">
-        <v>4553</v>
+        <v>4549</v>
       </c>
       <c r="M1779"/>
     </row>
@@ -52767,15 +52767,15 @@
       </c>
       <c r="F1781" s="48"/>
       <c r="H1781" s="6" t="s">
-        <v>4554</v>
+        <v>4550</v>
       </c>
       <c r="I1781" s="6" t="s">
-        <v>4554</v>
+        <v>4550</v>
       </c>
       <c r="J1781"/>
       <c r="K1781"/>
       <c r="L1781" s="45" t="s">
-        <v>4555</v>
+        <v>4551</v>
       </c>
       <c r="M1781"/>
     </row>
@@ -52806,15 +52806,15 @@
       </c>
       <c r="F1783" s="48"/>
       <c r="H1783" s="6" t="s">
-        <v>4556</v>
+        <v>4552</v>
       </c>
       <c r="I1783" s="6" t="s">
-        <v>4556</v>
+        <v>4552</v>
       </c>
       <c r="J1783"/>
       <c r="K1783"/>
       <c r="L1783" s="45" t="s">
-        <v>4557</v>
+        <v>4553</v>
       </c>
       <c r="M1783"/>
     </row>
@@ -52827,15 +52827,15 @@
       </c>
       <c r="F1784" s="48"/>
       <c r="H1784" s="6" t="s">
-        <v>4558</v>
+        <v>4554</v>
       </c>
       <c r="I1784" s="6" t="s">
-        <v>4559</v>
+        <v>4555</v>
       </c>
       <c r="J1784"/>
       <c r="K1784"/>
       <c r="L1784" s="45" t="s">
-        <v>4560</v>
+        <v>4556</v>
       </c>
       <c r="M1784"/>
     </row>
@@ -52845,15 +52845,15 @@
       </c>
       <c r="F1785" s="48"/>
       <c r="H1785" s="6" t="s">
-        <v>4561</v>
+        <v>4557</v>
       </c>
       <c r="I1785" s="6" t="s">
-        <v>4561</v>
+        <v>4557</v>
       </c>
       <c r="J1785"/>
       <c r="K1785"/>
       <c r="L1785" s="45" t="s">
-        <v>4562</v>
+        <v>4558</v>
       </c>
       <c r="M1785"/>
     </row>
@@ -52866,15 +52866,15 @@
       </c>
       <c r="F1786" s="48"/>
       <c r="H1786" s="6" t="s">
-        <v>4563</v>
+        <v>4559</v>
       </c>
       <c r="I1786" s="6" t="s">
-        <v>4564</v>
+        <v>4560</v>
       </c>
       <c r="J1786"/>
       <c r="K1786"/>
       <c r="L1786" s="45" t="s">
-        <v>4565</v>
+        <v>4561</v>
       </c>
       <c r="M1786"/>
     </row>
@@ -52884,15 +52884,15 @@
       </c>
       <c r="F1787" s="48"/>
       <c r="H1787" s="6" t="s">
-        <v>4566</v>
+        <v>4562</v>
       </c>
       <c r="I1787" s="6" t="s">
-        <v>4566</v>
+        <v>4562</v>
       </c>
       <c r="J1787"/>
       <c r="K1787"/>
       <c r="L1787" s="45" t="s">
-        <v>4567</v>
+        <v>4563</v>
       </c>
       <c r="M1787"/>
     </row>
@@ -52905,15 +52905,15 @@
       </c>
       <c r="F1788" s="48"/>
       <c r="H1788" s="6" t="s">
-        <v>4568</v>
+        <v>4564</v>
       </c>
       <c r="I1788" s="6" t="s">
-        <v>4569</v>
+        <v>4565</v>
       </c>
       <c r="J1788"/>
       <c r="K1788"/>
       <c r="L1788" s="45" t="s">
-        <v>4570</v>
+        <v>4566</v>
       </c>
       <c r="M1788"/>
     </row>
@@ -52929,15 +52929,15 @@
       </c>
       <c r="F1789" s="48"/>
       <c r="H1789" s="6" t="s">
-        <v>4571</v>
+        <v>4567</v>
       </c>
       <c r="I1789" s="6" t="s">
-        <v>4572</v>
+        <v>4568</v>
       </c>
       <c r="J1789"/>
       <c r="K1789"/>
       <c r="L1789" s="45" t="s">
-        <v>4573</v>
+        <v>4569</v>
       </c>
       <c r="M1789"/>
     </row>
@@ -52953,15 +52953,15 @@
       </c>
       <c r="F1790" s="48"/>
       <c r="H1790" s="6" t="s">
-        <v>4574</v>
+        <v>4570</v>
       </c>
       <c r="I1790" s="6" t="s">
-        <v>4575</v>
+        <v>4571</v>
       </c>
       <c r="J1790"/>
       <c r="K1790"/>
       <c r="L1790" s="45" t="s">
-        <v>4576</v>
+        <v>4572</v>
       </c>
       <c r="M1790"/>
     </row>
@@ -52977,15 +52977,15 @@
       </c>
       <c r="F1791" s="48"/>
       <c r="H1791" s="6" t="s">
-        <v>4577</v>
+        <v>4573</v>
       </c>
       <c r="I1791" s="6" t="s">
-        <v>4578</v>
+        <v>4574</v>
       </c>
       <c r="J1791"/>
       <c r="K1791"/>
       <c r="L1791" s="45" t="s">
-        <v>4579</v>
+        <v>4575</v>
       </c>
       <c r="M1791"/>
     </row>
@@ -53001,15 +53001,15 @@
       </c>
       <c r="F1792" s="48"/>
       <c r="H1792" s="6" t="s">
-        <v>4580</v>
+        <v>4576</v>
       </c>
       <c r="I1792" s="6" t="s">
-        <v>4581</v>
+        <v>4577</v>
       </c>
       <c r="J1792"/>
       <c r="K1792"/>
       <c r="L1792" s="45" t="s">
-        <v>4582</v>
+        <v>4578</v>
       </c>
       <c r="M1792"/>
     </row>
@@ -53054,17 +53054,17 @@
         <v>2896</v>
       </c>
       <c r="H1794" s="6" t="s">
-        <v>4583</v>
+        <v>4579</v>
       </c>
       <c r="I1794" s="6" t="s">
-        <v>4584</v>
+        <v>4580</v>
       </c>
       <c r="J1794"/>
       <c r="K1794" t="s">
-        <v>4585</v>
+        <v>4581</v>
       </c>
       <c r="L1794" s="45" t="s">
-        <v>4586</v>
+        <v>4582</v>
       </c>
       <c r="M1794"/>
     </row>
@@ -53082,17 +53082,17 @@
         <v>2896</v>
       </c>
       <c r="H1795" s="6" t="s">
-        <v>4587</v>
+        <v>4583</v>
       </c>
       <c r="I1795" s="6" t="s">
-        <v>4587</v>
+        <v>4583</v>
       </c>
       <c r="J1795"/>
       <c r="K1795" t="s">
-        <v>4585</v>
+        <v>4581</v>
       </c>
       <c r="L1795" s="45" t="s">
-        <v>4588</v>
+        <v>4584</v>
       </c>
       <c r="M1795"/>
     </row>
@@ -53107,15 +53107,15 @@
         <v>805</v>
       </c>
       <c r="H1796" s="6" t="s">
-        <v>4589</v>
+        <v>4585</v>
       </c>
       <c r="I1796" s="6" t="s">
-        <v>4590</v>
+        <v>4586</v>
       </c>
       <c r="J1796"/>
       <c r="K1796"/>
       <c r="L1796" s="45" t="s">
-        <v>4591</v>
+        <v>4587</v>
       </c>
       <c r="M1796"/>
     </row>
@@ -53130,7 +53130,7 @@
         <v>805</v>
       </c>
       <c r="F1797" s="48" t="s">
-        <v>4721</v>
+        <v>4717</v>
       </c>
       <c r="G1797" s="48" t="s">
         <v>2896</v>
@@ -53162,15 +53162,15 @@
       </c>
       <c r="F1798" s="48"/>
       <c r="H1798" s="6" t="s">
-        <v>4592</v>
+        <v>4588</v>
       </c>
       <c r="I1798" s="6" t="s">
-        <v>4593</v>
+        <v>4589</v>
       </c>
       <c r="J1798"/>
       <c r="K1798"/>
       <c r="L1798" s="45" t="s">
-        <v>4594</v>
+        <v>4590</v>
       </c>
       <c r="M1798"/>
     </row>
@@ -53186,15 +53186,15 @@
       </c>
       <c r="F1799" s="48"/>
       <c r="H1799" s="6" t="s">
-        <v>4595</v>
+        <v>4591</v>
       </c>
       <c r="I1799" s="6" t="s">
-        <v>4596</v>
+        <v>4592</v>
       </c>
       <c r="J1799"/>
       <c r="K1799"/>
       <c r="L1799" s="45" t="s">
-        <v>4597</v>
+        <v>4593</v>
       </c>
       <c r="M1799"/>
     </row>
@@ -53213,7 +53213,7 @@
         <v>3024</v>
       </c>
       <c r="I1800" s="6" t="s">
-        <v>4598</v>
+        <v>4594</v>
       </c>
       <c r="J1800"/>
       <c r="K1800"/>
@@ -53231,15 +53231,15 @@
       </c>
       <c r="F1801" s="48"/>
       <c r="H1801" s="6" t="s">
-        <v>4599</v>
+        <v>4595</v>
       </c>
       <c r="I1801" s="6" t="s">
-        <v>4600</v>
+        <v>4596</v>
       </c>
       <c r="J1801"/>
       <c r="K1801"/>
       <c r="L1801" s="45" t="s">
-        <v>4722</v>
+        <v>4718</v>
       </c>
       <c r="M1801"/>
     </row>
@@ -53252,15 +53252,15 @@
       </c>
       <c r="F1802" s="48"/>
       <c r="H1802" s="6" t="s">
-        <v>4601</v>
+        <v>4597</v>
       </c>
       <c r="I1802" s="6" t="s">
-        <v>4602</v>
+        <v>4598</v>
       </c>
       <c r="J1802"/>
       <c r="K1802"/>
       <c r="L1802" s="45" t="s">
-        <v>4723</v>
+        <v>4719</v>
       </c>
       <c r="M1802"/>
     </row>
@@ -53276,12 +53276,12 @@
         <v>2647</v>
       </c>
       <c r="I1803" s="6" t="s">
-        <v>4603</v>
+        <v>4599</v>
       </c>
       <c r="J1803"/>
       <c r="K1803"/>
       <c r="L1803" s="45" t="s">
-        <v>4604</v>
+        <v>4600</v>
       </c>
       <c r="M1803"/>
     </row>
@@ -53294,15 +53294,15 @@
       </c>
       <c r="F1804" s="48"/>
       <c r="H1804" s="6" t="s">
-        <v>4605</v>
+        <v>4601</v>
       </c>
       <c r="I1804" s="6" t="s">
-        <v>4606</v>
+        <v>4602</v>
       </c>
       <c r="J1804"/>
       <c r="K1804"/>
       <c r="L1804" s="45" t="s">
-        <v>4607</v>
+        <v>4603</v>
       </c>
       <c r="M1804"/>
     </row>
@@ -53315,15 +53315,15 @@
       </c>
       <c r="F1805" s="48"/>
       <c r="H1805" s="6" t="s">
-        <v>4608</v>
+        <v>4604</v>
       </c>
       <c r="I1805" s="6" t="s">
-        <v>4609</v>
+        <v>4605</v>
       </c>
       <c r="J1805"/>
       <c r="K1805"/>
       <c r="L1805" s="45" t="s">
-        <v>4610</v>
+        <v>4606</v>
       </c>
       <c r="M1805"/>
     </row>
@@ -53336,15 +53336,15 @@
       </c>
       <c r="F1806" s="48"/>
       <c r="H1806" s="6" t="s">
-        <v>4611</v>
+        <v>4607</v>
       </c>
       <c r="I1806" s="6" t="s">
-        <v>4612</v>
+        <v>4608</v>
       </c>
       <c r="J1806"/>
       <c r="K1806"/>
       <c r="L1806" s="45" t="s">
-        <v>4613</v>
+        <v>4609</v>
       </c>
       <c r="M1806"/>
     </row>
@@ -53357,10 +53357,10 @@
       </c>
       <c r="F1807" s="48"/>
       <c r="H1807" s="6" t="s">
-        <v>4614</v>
+        <v>4610</v>
       </c>
       <c r="I1807" s="6" t="s">
-        <v>4615</v>
+        <v>4611</v>
       </c>
       <c r="J1807"/>
       <c r="K1807"/>
@@ -53378,15 +53378,15 @@
       </c>
       <c r="F1808" s="48"/>
       <c r="H1808" s="6" t="s">
-        <v>4616</v>
+        <v>4612</v>
       </c>
       <c r="I1808" s="6" t="s">
-        <v>4617</v>
+        <v>4613</v>
       </c>
       <c r="J1808"/>
       <c r="K1808"/>
       <c r="L1808" s="45" t="s">
-        <v>4618</v>
+        <v>4614</v>
       </c>
       <c r="M1808"/>
     </row>
@@ -53399,15 +53399,15 @@
       </c>
       <c r="F1809" s="48"/>
       <c r="H1809" s="6" t="s">
-        <v>4619</v>
+        <v>4615</v>
       </c>
       <c r="I1809" s="6" t="s">
-        <v>4620</v>
+        <v>4616</v>
       </c>
       <c r="J1809"/>
       <c r="K1809"/>
       <c r="L1809" s="45" t="s">
-        <v>4621</v>
+        <v>4617</v>
       </c>
       <c r="M1809"/>
     </row>
@@ -53417,15 +53417,15 @@
       </c>
       <c r="F1810" s="48"/>
       <c r="H1810" s="6" t="s">
-        <v>4622</v>
+        <v>4618</v>
       </c>
       <c r="I1810" s="6" t="s">
-        <v>4622</v>
+        <v>4618</v>
       </c>
       <c r="J1810"/>
       <c r="K1810"/>
       <c r="L1810" s="45" t="s">
-        <v>4623</v>
+        <v>4619</v>
       </c>
       <c r="M1810"/>
     </row>
@@ -53441,12 +53441,12 @@
         <v>926</v>
       </c>
       <c r="I1811" s="6" t="s">
-        <v>4624</v>
+        <v>4620</v>
       </c>
       <c r="J1811"/>
       <c r="K1811"/>
       <c r="L1811" s="45" t="s">
-        <v>4625</v>
+        <v>4621</v>
       </c>
       <c r="M1811"/>
     </row>
@@ -53461,15 +53461,15 @@
         <v>3054</v>
       </c>
       <c r="H1812" s="6" t="s">
-        <v>4626</v>
+        <v>4622</v>
       </c>
       <c r="I1812" s="6" t="s">
-        <v>4627</v>
+        <v>4623</v>
       </c>
       <c r="J1812"/>
       <c r="K1812"/>
       <c r="L1812" s="45" t="s">
-        <v>4628</v>
+        <v>4624</v>
       </c>
       <c r="M1812"/>
     </row>
@@ -53482,15 +53482,15 @@
       </c>
       <c r="F1813" s="48"/>
       <c r="H1813" s="6" t="s">
-        <v>4629</v>
+        <v>4625</v>
       </c>
       <c r="I1813" s="6" t="s">
-        <v>4629</v>
+        <v>4625</v>
       </c>
       <c r="J1813"/>
       <c r="K1813"/>
       <c r="L1813" s="45" t="s">
-        <v>4630</v>
+        <v>4626</v>
       </c>
       <c r="M1813"/>
     </row>
@@ -53503,15 +53503,15 @@
       </c>
       <c r="F1814" s="48"/>
       <c r="H1814" s="6" t="s">
-        <v>4631</v>
+        <v>4627</v>
       </c>
       <c r="I1814" s="6" t="s">
-        <v>4631</v>
+        <v>4627</v>
       </c>
       <c r="J1814"/>
       <c r="K1814"/>
       <c r="L1814" s="45" t="s">
-        <v>4632</v>
+        <v>4628</v>
       </c>
       <c r="M1814"/>
     </row>
@@ -53524,15 +53524,15 @@
       </c>
       <c r="F1815" s="48"/>
       <c r="H1815" s="6" t="s">
-        <v>4633</v>
+        <v>4629</v>
       </c>
       <c r="I1815" s="6" t="s">
-        <v>4634</v>
+        <v>4630</v>
       </c>
       <c r="J1815"/>
       <c r="K1815"/>
       <c r="L1815" s="45" t="s">
-        <v>4635</v>
+        <v>4631</v>
       </c>
       <c r="M1815"/>
     </row>
@@ -53542,15 +53542,15 @@
       </c>
       <c r="F1816" s="48"/>
       <c r="H1816" s="6" t="s">
-        <v>4636</v>
+        <v>4632</v>
       </c>
       <c r="I1816" s="6" t="s">
-        <v>4636</v>
+        <v>4632</v>
       </c>
       <c r="J1816"/>
       <c r="K1816"/>
       <c r="L1816" s="45" t="s">
-        <v>4636</v>
+        <v>4632</v>
       </c>
       <c r="M1816"/>
     </row>
@@ -53560,17 +53560,17 @@
       </c>
       <c r="F1817" s="48"/>
       <c r="H1817" s="6" t="s">
-        <v>4724</v>
+        <v>4720</v>
       </c>
       <c r="I1817" s="6" t="s">
-        <v>4724</v>
+        <v>4720</v>
       </c>
       <c r="J1817" t="s">
         <v>3072</v>
       </c>
       <c r="K1817"/>
       <c r="L1817" s="45" t="s">
-        <v>4637</v>
+        <v>4633</v>
       </c>
       <c r="M1817"/>
     </row>
@@ -53583,15 +53583,15 @@
       </c>
       <c r="F1818" s="48"/>
       <c r="H1818" s="6" t="s">
-        <v>4638</v>
+        <v>4634</v>
       </c>
       <c r="I1818" s="6" t="s">
-        <v>4638</v>
+        <v>4634</v>
       </c>
       <c r="J1818"/>
       <c r="K1818"/>
       <c r="L1818" s="45" t="s">
-        <v>4639</v>
+        <v>4635</v>
       </c>
       <c r="M1818"/>
     </row>
@@ -53604,15 +53604,15 @@
       </c>
       <c r="F1819" s="48"/>
       <c r="H1819" s="6" t="s">
-        <v>4640</v>
+        <v>4636</v>
       </c>
       <c r="I1819" s="6" t="s">
-        <v>4640</v>
+        <v>4636</v>
       </c>
       <c r="J1819"/>
       <c r="K1819"/>
       <c r="L1819" s="45" t="s">
-        <v>4641</v>
+        <v>4637</v>
       </c>
       <c r="M1819"/>
     </row>
@@ -53622,17 +53622,17 @@
       </c>
       <c r="F1820" s="48"/>
       <c r="H1820" s="6" t="s">
-        <v>4642</v>
+        <v>4638</v>
       </c>
       <c r="I1820" s="6" t="s">
-        <v>4642</v>
+        <v>4638</v>
       </c>
       <c r="J1820" t="s">
         <v>3072</v>
       </c>
       <c r="K1820"/>
       <c r="L1820" s="45" t="s">
-        <v>4643</v>
+        <v>4639</v>
       </c>
       <c r="M1820"/>
     </row>
@@ -53642,10 +53642,10 @@
       </c>
       <c r="F1821" s="48"/>
       <c r="H1821" s="6" t="s">
-        <v>4644</v>
+        <v>4640</v>
       </c>
       <c r="I1821" s="6" t="s">
-        <v>4644</v>
+        <v>4640</v>
       </c>
       <c r="J1821"/>
       <c r="K1821"/>
@@ -53662,17 +53662,17 @@
         <v>3463</v>
       </c>
       <c r="H1822" s="6" t="s">
-        <v>4645</v>
+        <v>4641</v>
       </c>
       <c r="I1822" s="6" t="s">
-        <v>4645</v>
+        <v>4641</v>
       </c>
       <c r="J1822" t="s">
         <v>3072</v>
       </c>
       <c r="K1822"/>
       <c r="L1822" s="45" t="s">
-        <v>4725</v>
+        <v>4721</v>
       </c>
       <c r="M1822"/>
     </row>
@@ -53682,17 +53682,17 @@
       </c>
       <c r="F1823" s="48"/>
       <c r="H1823" s="6" t="s">
-        <v>4646</v>
+        <v>4642</v>
       </c>
       <c r="I1823" s="6" t="s">
-        <v>4646</v>
+        <v>4642</v>
       </c>
       <c r="J1823" t="s">
         <v>3072</v>
       </c>
       <c r="K1823"/>
       <c r="L1823" s="45" t="s">
-        <v>4726</v>
+        <v>4722</v>
       </c>
       <c r="M1823"/>
     </row>
@@ -53714,7 +53714,7 @@
       </c>
       <c r="K1824"/>
       <c r="L1824" s="45" t="s">
-        <v>4727</v>
+        <v>4723</v>
       </c>
       <c r="M1824"/>
     </row>
@@ -53730,10 +53730,10 @@
       </c>
       <c r="F1825" s="48"/>
       <c r="H1825" s="6" t="s">
-        <v>4647</v>
+        <v>4643</v>
       </c>
       <c r="I1825" s="6" t="s">
-        <v>4648</v>
+        <v>4644</v>
       </c>
       <c r="J1825"/>
       <c r="K1825"/>
@@ -53766,15 +53766,15 @@
       </c>
       <c r="F1827" s="48"/>
       <c r="H1827" s="6" t="s">
-        <v>4649</v>
+        <v>4645</v>
       </c>
       <c r="I1827" s="6" t="s">
-        <v>4649</v>
+        <v>4645</v>
       </c>
       <c r="J1827"/>
       <c r="K1827"/>
       <c r="L1827" s="45" t="s">
-        <v>4650</v>
+        <v>4646</v>
       </c>
       <c r="M1827"/>
     </row>
@@ -53787,15 +53787,15 @@
       </c>
       <c r="F1828" s="48"/>
       <c r="H1828" s="6" t="s">
-        <v>4651</v>
+        <v>4647</v>
       </c>
       <c r="I1828" s="6" t="s">
-        <v>4652</v>
+        <v>4648</v>
       </c>
       <c r="J1828"/>
       <c r="K1828"/>
       <c r="L1828" s="45" t="s">
-        <v>4653</v>
+        <v>4649</v>
       </c>
       <c r="M1828"/>
     </row>
@@ -53811,15 +53811,15 @@
       </c>
       <c r="F1829" s="48"/>
       <c r="H1829" s="6" t="s">
-        <v>4654</v>
+        <v>4650</v>
       </c>
       <c r="I1829" s="6" t="s">
-        <v>4655</v>
+        <v>4651</v>
       </c>
       <c r="J1829"/>
       <c r="K1829"/>
       <c r="L1829" s="45" t="s">
-        <v>4656</v>
+        <v>4652</v>
       </c>
       <c r="M1829"/>
     </row>
@@ -53832,15 +53832,15 @@
       </c>
       <c r="F1830" s="48"/>
       <c r="H1830" s="6" t="s">
-        <v>4657</v>
+        <v>4653</v>
       </c>
       <c r="I1830" s="6" t="s">
-        <v>4658</v>
+        <v>4654</v>
       </c>
       <c r="J1830"/>
       <c r="K1830"/>
       <c r="L1830" s="45" t="s">
-        <v>4659</v>
+        <v>4655</v>
       </c>
       <c r="M1830"/>
     </row>
@@ -53856,7 +53856,7 @@
         <v>2141</v>
       </c>
       <c r="I1831" s="6" t="s">
-        <v>4660</v>
+        <v>4656</v>
       </c>
       <c r="J1831"/>
       <c r="K1831"/>
@@ -53877,15 +53877,15 @@
       </c>
       <c r="F1832" s="48"/>
       <c r="H1832" s="6" t="s">
-        <v>4661</v>
+        <v>4657</v>
       </c>
       <c r="I1832" s="6" t="s">
-        <v>4662</v>
+        <v>4658</v>
       </c>
       <c r="J1832"/>
       <c r="K1832"/>
       <c r="L1832" s="45" t="s">
-        <v>4663</v>
+        <v>4659</v>
       </c>
       <c r="M1832"/>
     </row>
@@ -53895,15 +53895,15 @@
       </c>
       <c r="F1833" s="48"/>
       <c r="H1833" s="6" t="s">
-        <v>4664</v>
+        <v>4660</v>
       </c>
       <c r="I1833" s="6" t="s">
-        <v>4664</v>
+        <v>4660</v>
       </c>
       <c r="J1833"/>
       <c r="K1833"/>
       <c r="L1833" s="45" t="s">
-        <v>4665</v>
+        <v>4661</v>
       </c>
       <c r="M1833"/>
     </row>
@@ -53916,15 +53916,15 @@
       </c>
       <c r="F1834" s="48"/>
       <c r="H1834" s="6" t="s">
-        <v>4666</v>
+        <v>4662</v>
       </c>
       <c r="I1834" s="6" t="s">
-        <v>4667</v>
+        <v>4663</v>
       </c>
       <c r="J1834"/>
       <c r="K1834"/>
       <c r="L1834" s="45" t="s">
-        <v>4668</v>
+        <v>4664</v>
       </c>
       <c r="M1834"/>
     </row>
@@ -64248,7 +64248,7 @@
       <c r="A2" s="48"/>
       <c r="B2" s="48"/>
       <c r="C2" s="6" t="s">
-        <v>4702</v>
+        <v>4698</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>4144</v>
@@ -64275,7 +64275,7 @@
         <v>3110</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>4763</v>
+        <v>4759</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -64329,7 +64329,7 @@
         <v>1927</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>4764</v>
+        <v>4760</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -64456,7 +64456,7 @@
       <c r="A22" s="48"/>
       <c r="B22" s="48"/>
       <c r="C22" s="6" t="s">
-        <v>4704</v>
+        <v>4700</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>4194</v>
@@ -64486,7 +64486,7 @@
       <c r="A25" s="48"/>
       <c r="B25" s="48"/>
       <c r="C25" s="6" t="s">
-        <v>4705</v>
+        <v>4701</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>4200</v>
@@ -64538,7 +64538,7 @@
       </c>
       <c r="B30" s="48"/>
       <c r="C30" s="6" t="s">
-        <v>4772</v>
+        <v>4768</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>4212</v>
@@ -64550,7 +64550,7 @@
       </c>
       <c r="B31" s="48"/>
       <c r="C31" s="6" t="s">
-        <v>4773</v>
+        <v>4769</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>4214</v>
@@ -64562,10 +64562,10 @@
       </c>
       <c r="B32" s="48"/>
       <c r="C32" s="6" t="s">
-        <v>4774</v>
+        <v>4770</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>4765</v>
+        <v>4761</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
@@ -64574,10 +64574,10 @@
       </c>
       <c r="B33" s="48"/>
       <c r="C33" s="6" t="s">
-        <v>4775</v>
+        <v>4771</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>4766</v>
+        <v>4762</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -64586,10 +64586,10 @@
       </c>
       <c r="B34" s="48"/>
       <c r="C34" s="6" t="s">
-        <v>4776</v>
+        <v>4772</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>4767</v>
+        <v>4763</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -64598,10 +64598,10 @@
       </c>
       <c r="B35" s="48"/>
       <c r="C35" s="6" t="s">
-        <v>4777</v>
+        <v>4773</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>4768</v>
+        <v>4764</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -64610,10 +64610,10 @@
       </c>
       <c r="B36" s="48"/>
       <c r="C36" s="6" t="s">
-        <v>4778</v>
+        <v>4774</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>4769</v>
+        <v>4765</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -64622,7 +64622,7 @@
       </c>
       <c r="B37" s="48"/>
       <c r="C37" s="6" t="s">
-        <v>4779</v>
+        <v>4775</v>
       </c>
       <c r="E37" s="10" t="s">
         <v>4224</v>
@@ -64634,7 +64634,7 @@
       </c>
       <c r="B38" s="48"/>
       <c r="C38" s="6" t="s">
-        <v>4780</v>
+        <v>4776</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>4226</v>
@@ -64647,7 +64647,7 @@
         <v>4227</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>4771</v>
+        <v>4767</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -64687,7 +64687,7 @@
         <v>506</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>4770</v>
+        <v>4766</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -64814,7 +64814,7 @@
       <c r="A56" s="48"/>
       <c r="B56" s="48"/>
       <c r="C56" s="6" t="s">
-        <v>4710</v>
+        <v>4706</v>
       </c>
       <c r="E56" s="10" t="s">
         <v>4266</v>

--- a/vocabulary_gen/vocab.xlsx
+++ b/vocabulary_gen/vocab.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neilb\Projects\oboeru-web\vocabulary_gen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67ADC950-6358-4168-8E8C-5E1B03D865A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781BD697-9C28-41E5-978B-D74934964A0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{75A4A7FE-AA9B-48C2-A5CA-A82ACC0BB528}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{75A4A7FE-AA9B-48C2-A5CA-A82ACC0BB528}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11394" uniqueCount="4786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11396" uniqueCount="4787">
   <si>
     <t>わたし</t>
   </si>
@@ -13687,12 +13687,6 @@
     <t>drop</t>
   </si>
   <si>
-    <t>ひもがきれます</t>
-  </si>
-  <si>
-    <t>紐が切れます</t>
-  </si>
-  <si>
     <t>a string</t>
   </si>
   <si>
@@ -14462,6 +14456,15 @@
   </si>
   <si>
     <t>a certain～, one～</t>
+  </si>
+  <si>
+    <t>きれます</t>
+  </si>
+  <si>
+    <t>ひも (紐)</t>
+  </si>
+  <si>
+    <t>切れます</t>
   </si>
 </sst>
 </file>
@@ -15051,9 +15054,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{628C1A06-DC3A-4A9C-92CD-85C7106034D7}">
   <dimension ref="A1:O1834"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1734" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L1750" sqref="L1750"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1806" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1819" sqref="G1819"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15638,7 +15641,7 @@
         <v>360</v>
       </c>
       <c r="L29" s="12" t="s">
-        <v>4751</v>
+        <v>4749</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -15653,7 +15656,7 @@
         <v>361</v>
       </c>
       <c r="L30" s="12" t="s">
-        <v>4752</v>
+        <v>4750</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -17762,7 +17765,7 @@
         <v>566</v>
       </c>
       <c r="L137" s="12" t="s">
-        <v>4781</v>
+        <v>4779</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
@@ -41849,10 +41852,10 @@
         <v>2921</v>
       </c>
       <c r="H1302" s="6" t="s">
-        <v>4753</v>
+        <v>4751</v>
       </c>
       <c r="I1302" s="6" t="s">
-        <v>4753</v>
+        <v>4751</v>
       </c>
       <c r="L1302" s="12" t="s">
         <v>3450</v>
@@ -42071,7 +42074,7 @@
         <v>805</v>
       </c>
       <c r="F1314" s="48" t="s">
-        <v>4665</v>
+        <v>4663</v>
       </c>
       <c r="G1314" s="48" t="s">
         <v>3014</v>
@@ -42103,7 +42106,7 @@
       </c>
       <c r="F1315" s="48"/>
       <c r="H1315" s="6" t="s">
-        <v>4755</v>
+        <v>4753</v>
       </c>
       <c r="I1315" s="6" t="s">
         <v>3476</v>
@@ -42208,7 +42211,7 @@
         <v>2896</v>
       </c>
       <c r="H1319" s="6" t="s">
-        <v>4666</v>
+        <v>4664</v>
       </c>
       <c r="I1319" s="6" t="s">
         <v>3484</v>
@@ -42234,7 +42237,7 @@
       </c>
       <c r="F1320" s="48"/>
       <c r="H1320" s="6" t="s">
-        <v>4667</v>
+        <v>4665</v>
       </c>
       <c r="I1320" s="6" t="s">
         <v>3487</v>
@@ -42310,10 +42313,10 @@
       </c>
       <c r="F1323" s="48"/>
       <c r="H1323" s="6" t="s">
-        <v>4668</v>
+        <v>4666</v>
       </c>
       <c r="I1323" s="6" t="s">
-        <v>4669</v>
+        <v>4667</v>
       </c>
       <c r="J1323"/>
       <c r="K1323"/>
@@ -42462,7 +42465,7 @@
       <c r="J1329"/>
       <c r="K1329"/>
       <c r="L1329" s="45" t="s">
-        <v>4670</v>
+        <v>4668</v>
       </c>
       <c r="M1329"/>
     </row>
@@ -42486,7 +42489,7 @@
       <c r="J1330"/>
       <c r="K1330"/>
       <c r="L1330" s="45" t="s">
-        <v>4671</v>
+        <v>4669</v>
       </c>
       <c r="M1330"/>
     </row>
@@ -42510,7 +42513,7 @@
       <c r="J1331"/>
       <c r="K1331"/>
       <c r="L1331" s="45" t="s">
-        <v>4672</v>
+        <v>4670</v>
       </c>
       <c r="M1331"/>
     </row>
@@ -42534,7 +42537,7 @@
       <c r="J1332"/>
       <c r="K1332"/>
       <c r="L1332" s="45" t="s">
-        <v>4673</v>
+        <v>4671</v>
       </c>
       <c r="M1332"/>
     </row>
@@ -42558,7 +42561,7 @@
       <c r="J1333"/>
       <c r="K1333"/>
       <c r="L1333" s="45" t="s">
-        <v>4674</v>
+        <v>4672</v>
       </c>
       <c r="M1333"/>
     </row>
@@ -42582,7 +42585,7 @@
       <c r="J1334"/>
       <c r="K1334"/>
       <c r="L1334" s="45" t="s">
-        <v>4675</v>
+        <v>4673</v>
       </c>
       <c r="M1334"/>
     </row>
@@ -42679,7 +42682,7 @@
       </c>
       <c r="K1338"/>
       <c r="L1338" s="45" t="s">
-        <v>4676</v>
+        <v>4674</v>
       </c>
       <c r="M1338"/>
     </row>
@@ -42761,7 +42764,7 @@
       </c>
       <c r="F1342" s="48"/>
       <c r="H1342" s="6" t="s">
-        <v>4677</v>
+        <v>4675</v>
       </c>
       <c r="I1342" s="6" t="s">
         <v>3528</v>
@@ -42842,7 +42845,7 @@
       </c>
       <c r="K1345"/>
       <c r="L1345" s="45" t="s">
-        <v>4724</v>
+        <v>4722</v>
       </c>
       <c r="M1345"/>
     </row>
@@ -42865,7 +42868,7 @@
       </c>
       <c r="K1346"/>
       <c r="L1346" s="45" t="s">
-        <v>4725</v>
+        <v>4723</v>
       </c>
       <c r="M1346"/>
     </row>
@@ -42905,7 +42908,7 @@
       </c>
       <c r="F1348" s="48"/>
       <c r="H1348" s="6" t="s">
-        <v>4678</v>
+        <v>4676</v>
       </c>
       <c r="I1348" s="6" t="s">
         <v>3540</v>
@@ -42913,7 +42916,7 @@
       <c r="J1348"/>
       <c r="K1348"/>
       <c r="L1348" s="45" t="s">
-        <v>4679</v>
+        <v>4677</v>
       </c>
       <c r="M1348"/>
     </row>
@@ -42963,7 +42966,7 @@
       <c r="J1350"/>
       <c r="K1350"/>
       <c r="L1350" s="45" t="s">
-        <v>4680</v>
+        <v>4678</v>
       </c>
       <c r="M1350"/>
     </row>
@@ -42986,7 +42989,7 @@
       <c r="J1351"/>
       <c r="K1351"/>
       <c r="L1351" s="45" t="s">
-        <v>4681</v>
+        <v>4679</v>
       </c>
       <c r="M1351"/>
     </row>
@@ -43102,7 +43105,7 @@
       <c r="J1356"/>
       <c r="K1356"/>
       <c r="L1356" s="45" t="s">
-        <v>4726</v>
+        <v>4724</v>
       </c>
       <c r="M1356"/>
     </row>
@@ -43166,7 +43169,7 @@
       </c>
       <c r="F1359" s="48"/>
       <c r="H1359" s="6" t="s">
-        <v>4682</v>
+        <v>4680</v>
       </c>
       <c r="I1359" s="6" t="s">
         <v>3562</v>
@@ -43214,7 +43217,7 @@
       </c>
       <c r="F1361" s="48"/>
       <c r="H1361" s="6" t="s">
-        <v>4683</v>
+        <v>4681</v>
       </c>
       <c r="I1361" s="6" t="s">
         <v>3567</v>
@@ -43238,7 +43241,7 @@
       </c>
       <c r="F1362" s="48"/>
       <c r="H1362" s="6" t="s">
-        <v>4684</v>
+        <v>4682</v>
       </c>
       <c r="I1362" s="6" t="s">
         <v>3569</v>
@@ -43413,15 +43416,15 @@
         <v>3583</v>
       </c>
       <c r="I1368" s="6" t="s">
-        <v>4685</v>
+        <v>4683</v>
       </c>
       <c r="J1368"/>
       <c r="K1368"/>
       <c r="L1368" s="45" t="s">
-        <v>4687</v>
+        <v>4685</v>
       </c>
       <c r="M1368" t="s">
-        <v>4686</v>
+        <v>4684</v>
       </c>
     </row>
     <row r="1369" spans="1:13" x14ac:dyDescent="0.25">
@@ -43441,7 +43444,7 @@
         <v>3583</v>
       </c>
       <c r="I1369" s="6" t="s">
-        <v>4685</v>
+        <v>4683</v>
       </c>
       <c r="J1369"/>
       <c r="K1369"/>
@@ -43789,10 +43792,10 @@
       </c>
       <c r="F1384" s="48"/>
       <c r="H1384" s="6" t="s">
-        <v>4688</v>
+        <v>4686</v>
       </c>
       <c r="I1384" s="6" t="s">
-        <v>4688</v>
+        <v>4686</v>
       </c>
       <c r="J1384"/>
       <c r="K1384"/>
@@ -44021,7 +44024,7 @@
       </c>
       <c r="K1394"/>
       <c r="L1394" s="45" t="s">
-        <v>4689</v>
+        <v>4687</v>
       </c>
       <c r="M1394"/>
     </row>
@@ -44087,7 +44090,7 @@
       <c r="J1397"/>
       <c r="K1397"/>
       <c r="L1397" s="45" t="s">
-        <v>4727</v>
+        <v>4725</v>
       </c>
       <c r="M1397"/>
     </row>
@@ -44127,10 +44130,10 @@
       </c>
       <c r="F1399" s="48"/>
       <c r="H1399" s="6" t="s">
-        <v>4756</v>
+        <v>4754</v>
       </c>
       <c r="I1399" s="6" t="s">
-        <v>4757</v>
+        <v>4755</v>
       </c>
       <c r="J1399"/>
       <c r="K1399"/>
@@ -44364,20 +44367,20 @@
         <v>805</v>
       </c>
       <c r="F1409" s="48" t="s">
-        <v>4690</v>
+        <v>4688</v>
       </c>
       <c r="G1409" s="48" t="s">
         <v>3014</v>
       </c>
       <c r="H1409" s="6" t="s">
-        <v>4729</v>
+        <v>4727</v>
       </c>
       <c r="I1409" s="6" t="s">
-        <v>4730</v>
+        <v>4728</v>
       </c>
       <c r="J1409"/>
       <c r="K1409" t="s">
-        <v>4728</v>
+        <v>4726</v>
       </c>
       <c r="L1409" s="45" t="s">
         <v>2946</v>
@@ -44682,7 +44685,7 @@
         <v>36</v>
       </c>
       <c r="B1422" t="s">
-        <v>4731</v>
+        <v>4729</v>
       </c>
       <c r="F1422" s="48"/>
       <c r="H1422" s="6" t="s">
@@ -44824,7 +44827,7 @@
       </c>
       <c r="F1428" s="48"/>
       <c r="H1428" s="6" t="s">
-        <v>4691</v>
+        <v>4689</v>
       </c>
       <c r="I1428" s="6" t="s">
         <v>3726</v>
@@ -44951,7 +44954,7 @@
       </c>
       <c r="K1433"/>
       <c r="L1433" s="45" t="s">
-        <v>4732</v>
+        <v>4730</v>
       </c>
       <c r="M1433"/>
     </row>
@@ -44984,7 +44987,7 @@
         <v>36</v>
       </c>
       <c r="B1435" t="s">
-        <v>4733</v>
+        <v>4731</v>
       </c>
       <c r="E1435" s="4" t="s">
         <v>805</v>
@@ -45015,7 +45018,7 @@
       </c>
       <c r="F1436" s="48"/>
       <c r="H1436" s="6" t="s">
-        <v>4692</v>
+        <v>4690</v>
       </c>
       <c r="I1436" s="6" t="s">
         <v>3744</v>
@@ -45158,10 +45161,10 @@
       </c>
       <c r="F1442" s="48"/>
       <c r="H1442" s="6" t="s">
-        <v>4693</v>
+        <v>4691</v>
       </c>
       <c r="I1442" s="6" t="s">
-        <v>4694</v>
+        <v>4692</v>
       </c>
       <c r="J1442" t="s">
         <v>2921</v>
@@ -45631,7 +45634,7 @@
       </c>
       <c r="F1462" s="48"/>
       <c r="H1462" s="6" t="s">
-        <v>4754</v>
+        <v>4752</v>
       </c>
       <c r="I1462" s="6" t="s">
         <v>3810</v>
@@ -45745,10 +45748,10 @@
       </c>
       <c r="F1467" s="48"/>
       <c r="H1467" s="6" t="s">
-        <v>4734</v>
+        <v>4732</v>
       </c>
       <c r="I1467" s="6" t="s">
-        <v>4734</v>
+        <v>4732</v>
       </c>
       <c r="J1467"/>
       <c r="K1467"/>
@@ -45945,7 +45948,7 @@
       </c>
       <c r="K1475"/>
       <c r="L1475" s="45" t="s">
-        <v>4735</v>
+        <v>4733</v>
       </c>
       <c r="M1475"/>
     </row>
@@ -45969,7 +45972,7 @@
       <c r="J1476"/>
       <c r="K1476"/>
       <c r="L1476" s="45" t="s">
-        <v>4736</v>
+        <v>4734</v>
       </c>
       <c r="M1476"/>
     </row>
@@ -46066,7 +46069,7 @@
         <v>3463</v>
       </c>
       <c r="H1480" s="6" t="s">
-        <v>4737</v>
+        <v>4735</v>
       </c>
       <c r="I1480" s="6" t="s">
         <v>3854</v>
@@ -46391,7 +46394,7 @@
         <v>37</v>
       </c>
       <c r="B1494" t="s">
-        <v>4739</v>
+        <v>4737</v>
       </c>
       <c r="E1494" s="4" t="s">
         <v>805</v>
@@ -46456,7 +46459,7 @@
       </c>
       <c r="K1496"/>
       <c r="L1496" s="45" t="s">
-        <v>4738</v>
+        <v>4736</v>
       </c>
       <c r="M1496"/>
     </row>
@@ -46551,7 +46554,7 @@
       </c>
       <c r="F1500" s="48"/>
       <c r="H1500" s="6" t="s">
-        <v>4758</v>
+        <v>4756</v>
       </c>
       <c r="I1500" s="6" t="s">
         <v>3904</v>
@@ -46598,7 +46601,7 @@
         <v>805</v>
       </c>
       <c r="F1502" s="48" t="s">
-        <v>4740</v>
+        <v>4738</v>
       </c>
       <c r="G1502" s="48" t="s">
         <v>3014</v>
@@ -46629,7 +46632,7 @@
         <v>805</v>
       </c>
       <c r="F1503" s="48" t="s">
-        <v>4740</v>
+        <v>4738</v>
       </c>
       <c r="G1503" s="48" t="s">
         <v>3014</v>
@@ -46763,10 +46766,10 @@
       </c>
       <c r="F1508" s="48"/>
       <c r="H1508" s="6" t="s">
+        <v>4739</v>
+      </c>
+      <c r="I1508" s="6" t="s">
         <v>4741</v>
-      </c>
-      <c r="I1508" s="6" t="s">
-        <v>4743</v>
       </c>
       <c r="J1508" t="s">
         <v>2921</v>
@@ -46786,10 +46789,10 @@
       </c>
       <c r="F1509" s="48"/>
       <c r="H1509" s="6" t="s">
+        <v>4740</v>
+      </c>
+      <c r="I1509" s="6" t="s">
         <v>4742</v>
-      </c>
-      <c r="I1509" s="6" t="s">
-        <v>4744</v>
       </c>
       <c r="J1509" t="s">
         <v>2921</v>
@@ -47146,7 +47149,7 @@
       <c r="J1524"/>
       <c r="K1524"/>
       <c r="L1524" s="45" t="s">
-        <v>4745</v>
+        <v>4743</v>
       </c>
       <c r="M1524"/>
     </row>
@@ -47162,17 +47165,17 @@
       </c>
       <c r="F1525" s="48"/>
       <c r="H1525" s="6" t="s">
-        <v>4748</v>
+        <v>4746</v>
       </c>
       <c r="I1525" s="6" t="s">
+        <v>4745</v>
+      </c>
+      <c r="J1525" t="s">
         <v>4747</v>
-      </c>
-      <c r="J1525" t="s">
-        <v>4749</v>
       </c>
       <c r="K1525"/>
       <c r="L1525" s="45" t="s">
-        <v>4746</v>
+        <v>4744</v>
       </c>
       <c r="M1525"/>
     </row>
@@ -47332,7 +47335,7 @@
         <v>3973</v>
       </c>
       <c r="I1532" s="6" t="s">
-        <v>4750</v>
+        <v>4748</v>
       </c>
       <c r="J1532"/>
       <c r="K1532"/>
@@ -47641,7 +47644,7 @@
         <v>4005</v>
       </c>
       <c r="I1545" s="6" t="s">
-        <v>4695</v>
+        <v>4693</v>
       </c>
       <c r="J1545"/>
       <c r="K1545"/>
@@ -47813,7 +47816,7 @@
       </c>
       <c r="J1552"/>
       <c r="K1552" t="s">
-        <v>4696</v>
+        <v>4694</v>
       </c>
       <c r="L1552" s="45" t="s">
         <v>2338</v>
@@ -47860,7 +47863,7 @@
       </c>
       <c r="F1554" s="48"/>
       <c r="H1554" s="6" t="s">
-        <v>4697</v>
+        <v>4695</v>
       </c>
       <c r="I1554" s="6" t="s">
         <v>4025</v>
@@ -48915,10 +48918,10 @@
       </c>
       <c r="F1603" s="48"/>
       <c r="H1603" s="6" t="s">
-        <v>4698</v>
+        <v>4696</v>
       </c>
       <c r="I1603" s="6" t="s">
-        <v>4699</v>
+        <v>4697</v>
       </c>
       <c r="J1603"/>
       <c r="K1603"/>
@@ -49373,10 +49376,10 @@
       </c>
       <c r="F1623" s="48"/>
       <c r="H1623" s="6" t="s">
-        <v>4700</v>
+        <v>4698</v>
       </c>
       <c r="I1623" s="6" t="s">
-        <v>4700</v>
+        <v>4698</v>
       </c>
       <c r="J1623"/>
       <c r="K1623"/>
@@ -49436,10 +49439,10 @@
       </c>
       <c r="F1626" s="48"/>
       <c r="H1626" s="6" t="s">
-        <v>4701</v>
+        <v>4699</v>
       </c>
       <c r="I1626" s="6" t="s">
-        <v>4702</v>
+        <v>4700</v>
       </c>
       <c r="J1626"/>
       <c r="K1626"/>
@@ -49586,7 +49589,7 @@
         <v>3054</v>
       </c>
       <c r="H1633" s="6" t="s">
-        <v>4704</v>
+        <v>4702</v>
       </c>
       <c r="I1633" s="6" t="s">
         <v>52</v>
@@ -49609,7 +49612,7 @@
         <v>3054</v>
       </c>
       <c r="H1634" s="6" t="s">
-        <v>4703</v>
+        <v>4701</v>
       </c>
       <c r="I1634" s="6" t="s">
         <v>4216</v>
@@ -49701,7 +49704,7 @@
         <v>4223</v>
       </c>
       <c r="I1638" s="6" t="s">
-        <v>4705</v>
+        <v>4703</v>
       </c>
       <c r="J1638"/>
       <c r="K1638"/>
@@ -49721,7 +49724,7 @@
         <v>4225</v>
       </c>
       <c r="I1639" s="6" t="s">
-        <v>4777</v>
+        <v>4775</v>
       </c>
       <c r="J1639"/>
       <c r="K1639"/>
@@ -49879,10 +49882,10 @@
       </c>
       <c r="F1647" s="48"/>
       <c r="H1647" s="6" t="s">
-        <v>4780</v>
+        <v>4778</v>
       </c>
       <c r="I1647" s="6" t="s">
-        <v>4780</v>
+        <v>4778</v>
       </c>
       <c r="J1647"/>
       <c r="K1647"/>
@@ -49966,10 +49969,10 @@
       </c>
       <c r="F1651" s="48"/>
       <c r="H1651" s="6" t="s">
-        <v>4778</v>
+        <v>4776</v>
       </c>
       <c r="I1651" s="6" t="s">
-        <v>4779</v>
+        <v>4777</v>
       </c>
       <c r="J1651"/>
       <c r="K1651"/>
@@ -50098,7 +50101,7 @@
       </c>
       <c r="F1657" s="48"/>
       <c r="H1657" s="6" t="s">
-        <v>4706</v>
+        <v>4704</v>
       </c>
       <c r="I1657" s="6" t="s">
         <v>4265</v>
@@ -50148,7 +50151,7 @@
       <c r="J1659"/>
       <c r="K1659"/>
       <c r="L1659" s="45" t="s">
-        <v>4707</v>
+        <v>4705</v>
       </c>
       <c r="M1659"/>
     </row>
@@ -50169,7 +50172,7 @@
       <c r="J1660"/>
       <c r="K1660"/>
       <c r="L1660" s="45" t="s">
-        <v>4708</v>
+        <v>4706</v>
       </c>
       <c r="M1660"/>
     </row>
@@ -50190,7 +50193,7 @@
       <c r="J1661"/>
       <c r="K1661"/>
       <c r="L1661" s="45" t="s">
-        <v>4709</v>
+        <v>4707</v>
       </c>
       <c r="M1661"/>
     </row>
@@ -50230,7 +50233,7 @@
       </c>
       <c r="F1663" s="48"/>
       <c r="H1663" s="6" t="s">
-        <v>4710</v>
+        <v>4708</v>
       </c>
       <c r="I1663" s="6" t="s">
         <v>4273</v>
@@ -50356,10 +50359,10 @@
       </c>
       <c r="F1669" s="48"/>
       <c r="H1669" s="6" t="s">
-        <v>4711</v>
+        <v>4709</v>
       </c>
       <c r="I1669" s="6" t="s">
-        <v>4712</v>
+        <v>4710</v>
       </c>
       <c r="J1669"/>
       <c r="K1669"/>
@@ -51078,7 +51081,7 @@
       </c>
       <c r="K1704"/>
       <c r="L1704" s="45" t="s">
-        <v>4785</v>
+        <v>4783</v>
       </c>
       <c r="M1704"/>
     </row>
@@ -51718,7 +51721,7 @@
       </c>
       <c r="F1734" s="48"/>
       <c r="H1734" s="6" t="s">
-        <v>4783</v>
+        <v>4781</v>
       </c>
       <c r="I1734" s="6" t="s">
         <v>4448</v>
@@ -51919,7 +51922,7 @@
       </c>
       <c r="F1744" s="48"/>
       <c r="H1744" s="6" t="s">
-        <v>4782</v>
+        <v>4780</v>
       </c>
       <c r="I1744" s="6" t="s">
         <v>4474</v>
@@ -52046,7 +52049,7 @@
       </c>
       <c r="K1750"/>
       <c r="L1750" s="45" t="s">
-        <v>4785</v>
+        <v>4783</v>
       </c>
       <c r="M1750"/>
     </row>
@@ -52186,7 +52189,7 @@
       </c>
       <c r="F1757" s="48"/>
       <c r="H1757" s="6" t="s">
-        <v>4713</v>
+        <v>4711</v>
       </c>
       <c r="I1757" s="6" t="s">
         <v>4494</v>
@@ -52248,7 +52251,7 @@
       </c>
       <c r="F1760" s="48"/>
       <c r="H1760" s="6" t="s">
-        <v>4684</v>
+        <v>4682</v>
       </c>
       <c r="I1760" s="6" t="s">
         <v>3569</v>
@@ -52314,7 +52317,7 @@
       </c>
       <c r="F1763" s="48"/>
       <c r="H1763" s="6" t="s">
-        <v>4784</v>
+        <v>4782</v>
       </c>
       <c r="I1763" s="6" t="s">
         <v>4506</v>
@@ -52385,7 +52388,7 @@
         <v>805</v>
       </c>
       <c r="F1766" s="48" t="s">
-        <v>4715</v>
+        <v>4713</v>
       </c>
       <c r="G1766" s="48" t="s">
         <v>2896</v>
@@ -52416,7 +52419,7 @@
         <v>805</v>
       </c>
       <c r="F1767" s="48" t="s">
-        <v>4715</v>
+        <v>4713</v>
       </c>
       <c r="G1767" s="48" t="s">
         <v>2896</v>
@@ -52447,7 +52450,7 @@
         <v>805</v>
       </c>
       <c r="F1768" s="48" t="s">
-        <v>4716</v>
+        <v>4714</v>
       </c>
       <c r="G1768" s="48" t="s">
         <v>2896</v>
@@ -52478,7 +52481,7 @@
         <v>805</v>
       </c>
       <c r="F1769" s="48" t="s">
-        <v>4716</v>
+        <v>4714</v>
       </c>
       <c r="G1769" s="48" t="s">
         <v>2896</v>
@@ -52508,16 +52511,21 @@
       <c r="E1770" s="4" t="s">
         <v>805</v>
       </c>
-      <c r="F1770" s="48"/>
+      <c r="F1770" s="48" t="s">
+        <v>4785</v>
+      </c>
+      <c r="G1770" s="48" t="s">
+        <v>2896</v>
+      </c>
       <c r="H1770" s="6" t="s">
-        <v>4527</v>
+        <v>4784</v>
       </c>
       <c r="I1770" s="6" t="s">
-        <v>4528</v>
+        <v>4786</v>
       </c>
       <c r="J1770"/>
       <c r="K1770" t="s">
-        <v>4529</v>
+        <v>4527</v>
       </c>
       <c r="L1770" s="45" t="s">
         <v>3376</v>
@@ -52538,17 +52546,17 @@
         <v>2896</v>
       </c>
       <c r="H1771" s="6" t="s">
-        <v>4530</v>
+        <v>4528</v>
       </c>
       <c r="I1771" s="6" t="s">
-        <v>4530</v>
+        <v>4528</v>
       </c>
       <c r="J1771"/>
       <c r="K1771" t="s">
         <v>3371</v>
       </c>
       <c r="L1771" s="45" t="s">
-        <v>4531</v>
+        <v>4529</v>
       </c>
       <c r="M1771"/>
     </row>
@@ -52563,20 +52571,20 @@
         <v>805</v>
       </c>
       <c r="F1772" s="48" t="s">
-        <v>4714</v>
+        <v>4712</v>
       </c>
       <c r="G1772" s="48" t="s">
         <v>2896</v>
       </c>
       <c r="H1772" s="6" t="s">
-        <v>4532</v>
+        <v>4530</v>
       </c>
       <c r="I1772" s="6" t="s">
-        <v>4533</v>
+        <v>4531</v>
       </c>
       <c r="J1772"/>
       <c r="K1772" t="s">
-        <v>4534</v>
+        <v>4532</v>
       </c>
       <c r="L1772" s="45" t="s">
         <v>2338</v>
@@ -52591,23 +52599,23 @@
         <v>2510</v>
       </c>
       <c r="F1773" s="48" t="s">
-        <v>4550</v>
+        <v>4548</v>
       </c>
       <c r="G1773" s="48" t="s">
         <v>2896</v>
       </c>
       <c r="H1773" s="6" t="s">
-        <v>4535</v>
+        <v>4533</v>
       </c>
       <c r="I1773" s="6" t="s">
-        <v>4535</v>
+        <v>4533</v>
       </c>
       <c r="J1773"/>
       <c r="K1773" t="s">
-        <v>4536</v>
+        <v>4534</v>
       </c>
       <c r="L1773" s="45" t="s">
-        <v>4537</v>
+        <v>4535</v>
       </c>
       <c r="M1773"/>
     </row>
@@ -52626,12 +52634,12 @@
         <v>3268</v>
       </c>
       <c r="I1774" s="6" t="s">
-        <v>4538</v>
+        <v>4536</v>
       </c>
       <c r="J1774"/>
       <c r="K1774"/>
       <c r="L1774" s="45" t="s">
-        <v>4539</v>
+        <v>4537</v>
       </c>
       <c r="M1774"/>
     </row>
@@ -52647,15 +52655,15 @@
       </c>
       <c r="F1775" s="48"/>
       <c r="H1775" s="6" t="s">
-        <v>4540</v>
+        <v>4538</v>
       </c>
       <c r="I1775" s="6" t="s">
-        <v>4541</v>
+        <v>4539</v>
       </c>
       <c r="J1775"/>
       <c r="K1775"/>
       <c r="L1775" s="45" t="s">
-        <v>4542</v>
+        <v>4540</v>
       </c>
       <c r="M1775"/>
     </row>
@@ -52671,7 +52679,7 @@
       </c>
       <c r="F1776" s="48"/>
       <c r="H1776" s="6" t="s">
-        <v>4543</v>
+        <v>4541</v>
       </c>
       <c r="I1776" s="6" t="s">
         <v>210</v>
@@ -52689,15 +52697,15 @@
       </c>
       <c r="F1777" s="48"/>
       <c r="H1777" s="6" t="s">
-        <v>4544</v>
+        <v>4542</v>
       </c>
       <c r="I1777" s="6" t="s">
-        <v>4544</v>
+        <v>4542</v>
       </c>
       <c r="J1777"/>
       <c r="K1777"/>
       <c r="L1777" s="45" t="s">
-        <v>4545</v>
+        <v>4543</v>
       </c>
       <c r="M1777"/>
     </row>
@@ -52707,15 +52715,15 @@
       </c>
       <c r="F1778" s="48"/>
       <c r="H1778" s="6" t="s">
-        <v>4546</v>
+        <v>4544</v>
       </c>
       <c r="I1778" s="6" t="s">
-        <v>4546</v>
+        <v>4544</v>
       </c>
       <c r="J1778"/>
       <c r="K1778"/>
       <c r="L1778" s="45" t="s">
-        <v>4547</v>
+        <v>4545</v>
       </c>
       <c r="M1778"/>
     </row>
@@ -52725,15 +52733,15 @@
       </c>
       <c r="F1779" s="48"/>
       <c r="H1779" s="6" t="s">
-        <v>4548</v>
+        <v>4546</v>
       </c>
       <c r="I1779" s="6" t="s">
-        <v>4548</v>
+        <v>4546</v>
       </c>
       <c r="J1779"/>
       <c r="K1779"/>
       <c r="L1779" s="45" t="s">
-        <v>4549</v>
+        <v>4547</v>
       </c>
       <c r="M1779"/>
     </row>
@@ -52767,15 +52775,15 @@
       </c>
       <c r="F1781" s="48"/>
       <c r="H1781" s="6" t="s">
-        <v>4550</v>
+        <v>4548</v>
       </c>
       <c r="I1781" s="6" t="s">
-        <v>4550</v>
+        <v>4548</v>
       </c>
       <c r="J1781"/>
       <c r="K1781"/>
       <c r="L1781" s="45" t="s">
-        <v>4551</v>
+        <v>4549</v>
       </c>
       <c r="M1781"/>
     </row>
@@ -52806,15 +52814,15 @@
       </c>
       <c r="F1783" s="48"/>
       <c r="H1783" s="6" t="s">
-        <v>4552</v>
+        <v>4550</v>
       </c>
       <c r="I1783" s="6" t="s">
-        <v>4552</v>
+        <v>4550</v>
       </c>
       <c r="J1783"/>
       <c r="K1783"/>
       <c r="L1783" s="45" t="s">
-        <v>4553</v>
+        <v>4551</v>
       </c>
       <c r="M1783"/>
     </row>
@@ -52827,15 +52835,15 @@
       </c>
       <c r="F1784" s="48"/>
       <c r="H1784" s="6" t="s">
-        <v>4554</v>
+        <v>4552</v>
       </c>
       <c r="I1784" s="6" t="s">
-        <v>4555</v>
+        <v>4553</v>
       </c>
       <c r="J1784"/>
       <c r="K1784"/>
       <c r="L1784" s="45" t="s">
-        <v>4556</v>
+        <v>4554</v>
       </c>
       <c r="M1784"/>
     </row>
@@ -52845,15 +52853,15 @@
       </c>
       <c r="F1785" s="48"/>
       <c r="H1785" s="6" t="s">
-        <v>4557</v>
+        <v>4555</v>
       </c>
       <c r="I1785" s="6" t="s">
-        <v>4557</v>
+        <v>4555</v>
       </c>
       <c r="J1785"/>
       <c r="K1785"/>
       <c r="L1785" s="45" t="s">
-        <v>4558</v>
+        <v>4556</v>
       </c>
       <c r="M1785"/>
     </row>
@@ -52866,15 +52874,15 @@
       </c>
       <c r="F1786" s="48"/>
       <c r="H1786" s="6" t="s">
-        <v>4559</v>
+        <v>4557</v>
       </c>
       <c r="I1786" s="6" t="s">
-        <v>4560</v>
+        <v>4558</v>
       </c>
       <c r="J1786"/>
       <c r="K1786"/>
       <c r="L1786" s="45" t="s">
-        <v>4561</v>
+        <v>4559</v>
       </c>
       <c r="M1786"/>
     </row>
@@ -52884,15 +52892,15 @@
       </c>
       <c r="F1787" s="48"/>
       <c r="H1787" s="6" t="s">
-        <v>4562</v>
+        <v>4560</v>
       </c>
       <c r="I1787" s="6" t="s">
-        <v>4562</v>
+        <v>4560</v>
       </c>
       <c r="J1787"/>
       <c r="K1787"/>
       <c r="L1787" s="45" t="s">
-        <v>4563</v>
+        <v>4561</v>
       </c>
       <c r="M1787"/>
     </row>
@@ -52905,15 +52913,15 @@
       </c>
       <c r="F1788" s="48"/>
       <c r="H1788" s="6" t="s">
-        <v>4564</v>
+        <v>4562</v>
       </c>
       <c r="I1788" s="6" t="s">
-        <v>4565</v>
+        <v>4563</v>
       </c>
       <c r="J1788"/>
       <c r="K1788"/>
       <c r="L1788" s="45" t="s">
-        <v>4566</v>
+        <v>4564</v>
       </c>
       <c r="M1788"/>
     </row>
@@ -52929,15 +52937,15 @@
       </c>
       <c r="F1789" s="48"/>
       <c r="H1789" s="6" t="s">
-        <v>4567</v>
+        <v>4565</v>
       </c>
       <c r="I1789" s="6" t="s">
-        <v>4568</v>
+        <v>4566</v>
       </c>
       <c r="J1789"/>
       <c r="K1789"/>
       <c r="L1789" s="45" t="s">
-        <v>4569</v>
+        <v>4567</v>
       </c>
       <c r="M1789"/>
     </row>
@@ -52953,15 +52961,15 @@
       </c>
       <c r="F1790" s="48"/>
       <c r="H1790" s="6" t="s">
-        <v>4570</v>
+        <v>4568</v>
       </c>
       <c r="I1790" s="6" t="s">
-        <v>4571</v>
+        <v>4569</v>
       </c>
       <c r="J1790"/>
       <c r="K1790"/>
       <c r="L1790" s="45" t="s">
-        <v>4572</v>
+        <v>4570</v>
       </c>
       <c r="M1790"/>
     </row>
@@ -52977,15 +52985,15 @@
       </c>
       <c r="F1791" s="48"/>
       <c r="H1791" s="6" t="s">
-        <v>4573</v>
+        <v>4571</v>
       </c>
       <c r="I1791" s="6" t="s">
-        <v>4574</v>
+        <v>4572</v>
       </c>
       <c r="J1791"/>
       <c r="K1791"/>
       <c r="L1791" s="45" t="s">
-        <v>4575</v>
+        <v>4573</v>
       </c>
       <c r="M1791"/>
     </row>
@@ -53001,15 +53009,15 @@
       </c>
       <c r="F1792" s="48"/>
       <c r="H1792" s="6" t="s">
-        <v>4576</v>
+        <v>4574</v>
       </c>
       <c r="I1792" s="6" t="s">
-        <v>4577</v>
+        <v>4575</v>
       </c>
       <c r="J1792"/>
       <c r="K1792"/>
       <c r="L1792" s="45" t="s">
-        <v>4578</v>
+        <v>4576</v>
       </c>
       <c r="M1792"/>
     </row>
@@ -53054,17 +53062,17 @@
         <v>2896</v>
       </c>
       <c r="H1794" s="6" t="s">
-        <v>4579</v>
+        <v>4577</v>
       </c>
       <c r="I1794" s="6" t="s">
-        <v>4580</v>
+        <v>4578</v>
       </c>
       <c r="J1794"/>
       <c r="K1794" t="s">
-        <v>4581</v>
+        <v>4579</v>
       </c>
       <c r="L1794" s="45" t="s">
-        <v>4582</v>
+        <v>4580</v>
       </c>
       <c r="M1794"/>
     </row>
@@ -53082,17 +53090,17 @@
         <v>2896</v>
       </c>
       <c r="H1795" s="6" t="s">
-        <v>4583</v>
+        <v>4581</v>
       </c>
       <c r="I1795" s="6" t="s">
-        <v>4583</v>
+        <v>4581</v>
       </c>
       <c r="J1795"/>
       <c r="K1795" t="s">
-        <v>4581</v>
+        <v>4579</v>
       </c>
       <c r="L1795" s="45" t="s">
-        <v>4584</v>
+        <v>4582</v>
       </c>
       <c r="M1795"/>
     </row>
@@ -53107,15 +53115,15 @@
         <v>805</v>
       </c>
       <c r="H1796" s="6" t="s">
-        <v>4585</v>
+        <v>4583</v>
       </c>
       <c r="I1796" s="6" t="s">
-        <v>4586</v>
+        <v>4584</v>
       </c>
       <c r="J1796"/>
       <c r="K1796"/>
       <c r="L1796" s="45" t="s">
-        <v>4587</v>
+        <v>4585</v>
       </c>
       <c r="M1796"/>
     </row>
@@ -53130,7 +53138,7 @@
         <v>805</v>
       </c>
       <c r="F1797" s="48" t="s">
-        <v>4717</v>
+        <v>4715</v>
       </c>
       <c r="G1797" s="48" t="s">
         <v>2896</v>
@@ -53162,15 +53170,15 @@
       </c>
       <c r="F1798" s="48"/>
       <c r="H1798" s="6" t="s">
-        <v>4588</v>
+        <v>4586</v>
       </c>
       <c r="I1798" s="6" t="s">
-        <v>4589</v>
+        <v>4587</v>
       </c>
       <c r="J1798"/>
       <c r="K1798"/>
       <c r="L1798" s="45" t="s">
-        <v>4590</v>
+        <v>4588</v>
       </c>
       <c r="M1798"/>
     </row>
@@ -53186,15 +53194,15 @@
       </c>
       <c r="F1799" s="48"/>
       <c r="H1799" s="6" t="s">
-        <v>4591</v>
+        <v>4589</v>
       </c>
       <c r="I1799" s="6" t="s">
-        <v>4592</v>
+        <v>4590</v>
       </c>
       <c r="J1799"/>
       <c r="K1799"/>
       <c r="L1799" s="45" t="s">
-        <v>4593</v>
+        <v>4591</v>
       </c>
       <c r="M1799"/>
     </row>
@@ -53213,7 +53221,7 @@
         <v>3024</v>
       </c>
       <c r="I1800" s="6" t="s">
-        <v>4594</v>
+        <v>4592</v>
       </c>
       <c r="J1800"/>
       <c r="K1800"/>
@@ -53231,15 +53239,15 @@
       </c>
       <c r="F1801" s="48"/>
       <c r="H1801" s="6" t="s">
-        <v>4595</v>
+        <v>4593</v>
       </c>
       <c r="I1801" s="6" t="s">
-        <v>4596</v>
+        <v>4594</v>
       </c>
       <c r="J1801"/>
       <c r="K1801"/>
       <c r="L1801" s="45" t="s">
-        <v>4718</v>
+        <v>4716</v>
       </c>
       <c r="M1801"/>
     </row>
@@ -53252,15 +53260,15 @@
       </c>
       <c r="F1802" s="48"/>
       <c r="H1802" s="6" t="s">
-        <v>4597</v>
+        <v>4595</v>
       </c>
       <c r="I1802" s="6" t="s">
-        <v>4598</v>
+        <v>4596</v>
       </c>
       <c r="J1802"/>
       <c r="K1802"/>
       <c r="L1802" s="45" t="s">
-        <v>4719</v>
+        <v>4717</v>
       </c>
       <c r="M1802"/>
     </row>
@@ -53276,12 +53284,12 @@
         <v>2647</v>
       </c>
       <c r="I1803" s="6" t="s">
-        <v>4599</v>
+        <v>4597</v>
       </c>
       <c r="J1803"/>
       <c r="K1803"/>
       <c r="L1803" s="45" t="s">
-        <v>4600</v>
+        <v>4598</v>
       </c>
       <c r="M1803"/>
     </row>
@@ -53294,15 +53302,15 @@
       </c>
       <c r="F1804" s="48"/>
       <c r="H1804" s="6" t="s">
-        <v>4601</v>
+        <v>4599</v>
       </c>
       <c r="I1804" s="6" t="s">
-        <v>4602</v>
+        <v>4600</v>
       </c>
       <c r="J1804"/>
       <c r="K1804"/>
       <c r="L1804" s="45" t="s">
-        <v>4603</v>
+        <v>4601</v>
       </c>
       <c r="M1804"/>
     </row>
@@ -53315,15 +53323,15 @@
       </c>
       <c r="F1805" s="48"/>
       <c r="H1805" s="6" t="s">
-        <v>4604</v>
+        <v>4602</v>
       </c>
       <c r="I1805" s="6" t="s">
-        <v>4605</v>
+        <v>4603</v>
       </c>
       <c r="J1805"/>
       <c r="K1805"/>
       <c r="L1805" s="45" t="s">
-        <v>4606</v>
+        <v>4604</v>
       </c>
       <c r="M1805"/>
     </row>
@@ -53336,15 +53344,15 @@
       </c>
       <c r="F1806" s="48"/>
       <c r="H1806" s="6" t="s">
-        <v>4607</v>
+        <v>4605</v>
       </c>
       <c r="I1806" s="6" t="s">
-        <v>4608</v>
+        <v>4606</v>
       </c>
       <c r="J1806"/>
       <c r="K1806"/>
       <c r="L1806" s="45" t="s">
-        <v>4609</v>
+        <v>4607</v>
       </c>
       <c r="M1806"/>
     </row>
@@ -53357,10 +53365,10 @@
       </c>
       <c r="F1807" s="48"/>
       <c r="H1807" s="6" t="s">
-        <v>4610</v>
+        <v>4608</v>
       </c>
       <c r="I1807" s="6" t="s">
-        <v>4611</v>
+        <v>4609</v>
       </c>
       <c r="J1807"/>
       <c r="K1807"/>
@@ -53378,15 +53386,15 @@
       </c>
       <c r="F1808" s="48"/>
       <c r="H1808" s="6" t="s">
-        <v>4612</v>
+        <v>4610</v>
       </c>
       <c r="I1808" s="6" t="s">
-        <v>4613</v>
+        <v>4611</v>
       </c>
       <c r="J1808"/>
       <c r="K1808"/>
       <c r="L1808" s="45" t="s">
-        <v>4614</v>
+        <v>4612</v>
       </c>
       <c r="M1808"/>
     </row>
@@ -53399,15 +53407,15 @@
       </c>
       <c r="F1809" s="48"/>
       <c r="H1809" s="6" t="s">
-        <v>4615</v>
+        <v>4613</v>
       </c>
       <c r="I1809" s="6" t="s">
-        <v>4616</v>
+        <v>4614</v>
       </c>
       <c r="J1809"/>
       <c r="K1809"/>
       <c r="L1809" s="45" t="s">
-        <v>4617</v>
+        <v>4615</v>
       </c>
       <c r="M1809"/>
     </row>
@@ -53417,15 +53425,15 @@
       </c>
       <c r="F1810" s="48"/>
       <c r="H1810" s="6" t="s">
-        <v>4618</v>
+        <v>4616</v>
       </c>
       <c r="I1810" s="6" t="s">
-        <v>4618</v>
+        <v>4616</v>
       </c>
       <c r="J1810"/>
       <c r="K1810"/>
       <c r="L1810" s="45" t="s">
-        <v>4619</v>
+        <v>4617</v>
       </c>
       <c r="M1810"/>
     </row>
@@ -53441,12 +53449,12 @@
         <v>926</v>
       </c>
       <c r="I1811" s="6" t="s">
-        <v>4620</v>
+        <v>4618</v>
       </c>
       <c r="J1811"/>
       <c r="K1811"/>
       <c r="L1811" s="45" t="s">
-        <v>4621</v>
+        <v>4619</v>
       </c>
       <c r="M1811"/>
     </row>
@@ -53461,15 +53469,15 @@
         <v>3054</v>
       </c>
       <c r="H1812" s="6" t="s">
-        <v>4622</v>
+        <v>4620</v>
       </c>
       <c r="I1812" s="6" t="s">
-        <v>4623</v>
+        <v>4621</v>
       </c>
       <c r="J1812"/>
       <c r="K1812"/>
       <c r="L1812" s="45" t="s">
-        <v>4624</v>
+        <v>4622</v>
       </c>
       <c r="M1812"/>
     </row>
@@ -53482,15 +53490,15 @@
       </c>
       <c r="F1813" s="48"/>
       <c r="H1813" s="6" t="s">
-        <v>4625</v>
+        <v>4623</v>
       </c>
       <c r="I1813" s="6" t="s">
-        <v>4625</v>
+        <v>4623</v>
       </c>
       <c r="J1813"/>
       <c r="K1813"/>
       <c r="L1813" s="45" t="s">
-        <v>4626</v>
+        <v>4624</v>
       </c>
       <c r="M1813"/>
     </row>
@@ -53503,15 +53511,15 @@
       </c>
       <c r="F1814" s="48"/>
       <c r="H1814" s="6" t="s">
-        <v>4627</v>
+        <v>4625</v>
       </c>
       <c r="I1814" s="6" t="s">
-        <v>4627</v>
+        <v>4625</v>
       </c>
       <c r="J1814"/>
       <c r="K1814"/>
       <c r="L1814" s="45" t="s">
-        <v>4628</v>
+        <v>4626</v>
       </c>
       <c r="M1814"/>
     </row>
@@ -53524,15 +53532,15 @@
       </c>
       <c r="F1815" s="48"/>
       <c r="H1815" s="6" t="s">
-        <v>4629</v>
+        <v>4627</v>
       </c>
       <c r="I1815" s="6" t="s">
-        <v>4630</v>
+        <v>4628</v>
       </c>
       <c r="J1815"/>
       <c r="K1815"/>
       <c r="L1815" s="45" t="s">
-        <v>4631</v>
+        <v>4629</v>
       </c>
       <c r="M1815"/>
     </row>
@@ -53542,15 +53550,15 @@
       </c>
       <c r="F1816" s="48"/>
       <c r="H1816" s="6" t="s">
-        <v>4632</v>
+        <v>4630</v>
       </c>
       <c r="I1816" s="6" t="s">
-        <v>4632</v>
+        <v>4630</v>
       </c>
       <c r="J1816"/>
       <c r="K1816"/>
       <c r="L1816" s="45" t="s">
-        <v>4632</v>
+        <v>4630</v>
       </c>
       <c r="M1816"/>
     </row>
@@ -53560,17 +53568,17 @@
       </c>
       <c r="F1817" s="48"/>
       <c r="H1817" s="6" t="s">
-        <v>4720</v>
+        <v>4718</v>
       </c>
       <c r="I1817" s="6" t="s">
-        <v>4720</v>
+        <v>4718</v>
       </c>
       <c r="J1817" t="s">
         <v>3072</v>
       </c>
       <c r="K1817"/>
       <c r="L1817" s="45" t="s">
-        <v>4633</v>
+        <v>4631</v>
       </c>
       <c r="M1817"/>
     </row>
@@ -53583,15 +53591,15 @@
       </c>
       <c r="F1818" s="48"/>
       <c r="H1818" s="6" t="s">
-        <v>4634</v>
+        <v>4632</v>
       </c>
       <c r="I1818" s="6" t="s">
-        <v>4634</v>
+        <v>4632</v>
       </c>
       <c r="J1818"/>
       <c r="K1818"/>
       <c r="L1818" s="45" t="s">
-        <v>4635</v>
+        <v>4633</v>
       </c>
       <c r="M1818"/>
     </row>
@@ -53604,15 +53612,15 @@
       </c>
       <c r="F1819" s="48"/>
       <c r="H1819" s="6" t="s">
-        <v>4636</v>
+        <v>4634</v>
       </c>
       <c r="I1819" s="6" t="s">
-        <v>4636</v>
+        <v>4634</v>
       </c>
       <c r="J1819"/>
       <c r="K1819"/>
       <c r="L1819" s="45" t="s">
-        <v>4637</v>
+        <v>4635</v>
       </c>
       <c r="M1819"/>
     </row>
@@ -53622,17 +53630,17 @@
       </c>
       <c r="F1820" s="48"/>
       <c r="H1820" s="6" t="s">
-        <v>4638</v>
+        <v>4636</v>
       </c>
       <c r="I1820" s="6" t="s">
-        <v>4638</v>
+        <v>4636</v>
       </c>
       <c r="J1820" t="s">
         <v>3072</v>
       </c>
       <c r="K1820"/>
       <c r="L1820" s="45" t="s">
-        <v>4639</v>
+        <v>4637</v>
       </c>
       <c r="M1820"/>
     </row>
@@ -53642,10 +53650,10 @@
       </c>
       <c r="F1821" s="48"/>
       <c r="H1821" s="6" t="s">
-        <v>4640</v>
+        <v>4638</v>
       </c>
       <c r="I1821" s="6" t="s">
-        <v>4640</v>
+        <v>4638</v>
       </c>
       <c r="J1821"/>
       <c r="K1821"/>
@@ -53662,17 +53670,17 @@
         <v>3463</v>
       </c>
       <c r="H1822" s="6" t="s">
-        <v>4641</v>
+        <v>4639</v>
       </c>
       <c r="I1822" s="6" t="s">
-        <v>4641</v>
+        <v>4639</v>
       </c>
       <c r="J1822" t="s">
         <v>3072</v>
       </c>
       <c r="K1822"/>
       <c r="L1822" s="45" t="s">
-        <v>4721</v>
+        <v>4719</v>
       </c>
       <c r="M1822"/>
     </row>
@@ -53682,17 +53690,17 @@
       </c>
       <c r="F1823" s="48"/>
       <c r="H1823" s="6" t="s">
-        <v>4642</v>
+        <v>4640</v>
       </c>
       <c r="I1823" s="6" t="s">
-        <v>4642</v>
+        <v>4640</v>
       </c>
       <c r="J1823" t="s">
         <v>3072</v>
       </c>
       <c r="K1823"/>
       <c r="L1823" s="45" t="s">
-        <v>4722</v>
+        <v>4720</v>
       </c>
       <c r="M1823"/>
     </row>
@@ -53714,7 +53722,7 @@
       </c>
       <c r="K1824"/>
       <c r="L1824" s="45" t="s">
-        <v>4723</v>
+        <v>4721</v>
       </c>
       <c r="M1824"/>
     </row>
@@ -53730,10 +53738,10 @@
       </c>
       <c r="F1825" s="48"/>
       <c r="H1825" s="6" t="s">
-        <v>4643</v>
+        <v>4641</v>
       </c>
       <c r="I1825" s="6" t="s">
-        <v>4644</v>
+        <v>4642</v>
       </c>
       <c r="J1825"/>
       <c r="K1825"/>
@@ -53766,15 +53774,15 @@
       </c>
       <c r="F1827" s="48"/>
       <c r="H1827" s="6" t="s">
-        <v>4645</v>
+        <v>4643</v>
       </c>
       <c r="I1827" s="6" t="s">
-        <v>4645</v>
+        <v>4643</v>
       </c>
       <c r="J1827"/>
       <c r="K1827"/>
       <c r="L1827" s="45" t="s">
-        <v>4646</v>
+        <v>4644</v>
       </c>
       <c r="M1827"/>
     </row>
@@ -53787,15 +53795,15 @@
       </c>
       <c r="F1828" s="48"/>
       <c r="H1828" s="6" t="s">
-        <v>4647</v>
+        <v>4645</v>
       </c>
       <c r="I1828" s="6" t="s">
-        <v>4648</v>
+        <v>4646</v>
       </c>
       <c r="J1828"/>
       <c r="K1828"/>
       <c r="L1828" s="45" t="s">
-        <v>4649</v>
+        <v>4647</v>
       </c>
       <c r="M1828"/>
     </row>
@@ -53811,15 +53819,15 @@
       </c>
       <c r="F1829" s="48"/>
       <c r="H1829" s="6" t="s">
-        <v>4650</v>
+        <v>4648</v>
       </c>
       <c r="I1829" s="6" t="s">
-        <v>4651</v>
+        <v>4649</v>
       </c>
       <c r="J1829"/>
       <c r="K1829"/>
       <c r="L1829" s="45" t="s">
-        <v>4652</v>
+        <v>4650</v>
       </c>
       <c r="M1829"/>
     </row>
@@ -53832,15 +53840,15 @@
       </c>
       <c r="F1830" s="48"/>
       <c r="H1830" s="6" t="s">
-        <v>4653</v>
+        <v>4651</v>
       </c>
       <c r="I1830" s="6" t="s">
-        <v>4654</v>
+        <v>4652</v>
       </c>
       <c r="J1830"/>
       <c r="K1830"/>
       <c r="L1830" s="45" t="s">
-        <v>4655</v>
+        <v>4653</v>
       </c>
       <c r="M1830"/>
     </row>
@@ -53856,7 +53864,7 @@
         <v>2141</v>
       </c>
       <c r="I1831" s="6" t="s">
-        <v>4656</v>
+        <v>4654</v>
       </c>
       <c r="J1831"/>
       <c r="K1831"/>
@@ -53877,15 +53885,15 @@
       </c>
       <c r="F1832" s="48"/>
       <c r="H1832" s="6" t="s">
-        <v>4657</v>
+        <v>4655</v>
       </c>
       <c r="I1832" s="6" t="s">
-        <v>4658</v>
+        <v>4656</v>
       </c>
       <c r="J1832"/>
       <c r="K1832"/>
       <c r="L1832" s="45" t="s">
-        <v>4659</v>
+        <v>4657</v>
       </c>
       <c r="M1832"/>
     </row>
@@ -53895,15 +53903,15 @@
       </c>
       <c r="F1833" s="48"/>
       <c r="H1833" s="6" t="s">
-        <v>4660</v>
+        <v>4658</v>
       </c>
       <c r="I1833" s="6" t="s">
-        <v>4660</v>
+        <v>4658</v>
       </c>
       <c r="J1833"/>
       <c r="K1833"/>
       <c r="L1833" s="45" t="s">
-        <v>4661</v>
+        <v>4659</v>
       </c>
       <c r="M1833"/>
     </row>
@@ -53916,15 +53924,15 @@
       </c>
       <c r="F1834" s="48"/>
       <c r="H1834" s="6" t="s">
-        <v>4662</v>
+        <v>4660</v>
       </c>
       <c r="I1834" s="6" t="s">
-        <v>4663</v>
+        <v>4661</v>
       </c>
       <c r="J1834"/>
       <c r="K1834"/>
       <c r="L1834" s="45" t="s">
-        <v>4664</v>
+        <v>4662</v>
       </c>
       <c r="M1834"/>
     </row>
@@ -64248,7 +64256,7 @@
       <c r="A2" s="48"/>
       <c r="B2" s="48"/>
       <c r="C2" s="6" t="s">
-        <v>4698</v>
+        <v>4696</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>4144</v>
@@ -64275,7 +64283,7 @@
         <v>3110</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>4759</v>
+        <v>4757</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -64329,7 +64337,7 @@
         <v>1927</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>4760</v>
+        <v>4758</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -64456,7 +64464,7 @@
       <c r="A22" s="48"/>
       <c r="B22" s="48"/>
       <c r="C22" s="6" t="s">
-        <v>4700</v>
+        <v>4698</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>4194</v>
@@ -64486,7 +64494,7 @@
       <c r="A25" s="48"/>
       <c r="B25" s="48"/>
       <c r="C25" s="6" t="s">
-        <v>4701</v>
+        <v>4699</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>4200</v>
@@ -64538,7 +64546,7 @@
       </c>
       <c r="B30" s="48"/>
       <c r="C30" s="6" t="s">
-        <v>4768</v>
+        <v>4766</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>4212</v>
@@ -64550,7 +64558,7 @@
       </c>
       <c r="B31" s="48"/>
       <c r="C31" s="6" t="s">
-        <v>4769</v>
+        <v>4767</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>4214</v>
@@ -64562,10 +64570,10 @@
       </c>
       <c r="B32" s="48"/>
       <c r="C32" s="6" t="s">
-        <v>4770</v>
+        <v>4768</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>4761</v>
+        <v>4759</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
@@ -64574,10 +64582,10 @@
       </c>
       <c r="B33" s="48"/>
       <c r="C33" s="6" t="s">
-        <v>4771</v>
+        <v>4769</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>4762</v>
+        <v>4760</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -64586,10 +64594,10 @@
       </c>
       <c r="B34" s="48"/>
       <c r="C34" s="6" t="s">
-        <v>4772</v>
+        <v>4770</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>4763</v>
+        <v>4761</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -64598,10 +64606,10 @@
       </c>
       <c r="B35" s="48"/>
       <c r="C35" s="6" t="s">
-        <v>4773</v>
+        <v>4771</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>4764</v>
+        <v>4762</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -64610,10 +64618,10 @@
       </c>
       <c r="B36" s="48"/>
       <c r="C36" s="6" t="s">
-        <v>4774</v>
+        <v>4772</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>4765</v>
+        <v>4763</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -64622,7 +64630,7 @@
       </c>
       <c r="B37" s="48"/>
       <c r="C37" s="6" t="s">
-        <v>4775</v>
+        <v>4773</v>
       </c>
       <c r="E37" s="10" t="s">
         <v>4224</v>
@@ -64634,7 +64642,7 @@
       </c>
       <c r="B38" s="48"/>
       <c r="C38" s="6" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>4226</v>
@@ -64647,7 +64655,7 @@
         <v>4227</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>4767</v>
+        <v>4765</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -64687,7 +64695,7 @@
         <v>506</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>4766</v>
+        <v>4764</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -64814,7 +64822,7 @@
       <c r="A56" s="48"/>
       <c r="B56" s="48"/>
       <c r="C56" s="6" t="s">
-        <v>4706</v>
+        <v>4704</v>
       </c>
       <c r="E56" s="10" t="s">
         <v>4266</v>
